--- a/Player_data.xlsx
+++ b/Player_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmohling/Desktop/Tryout/TTBL-AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104A5E6-4BCB-234D-915C-E2AAE8303959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3DF686-EA9E-D24A-8BFD-CAA2E33C1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{3554FB84-58A7-0742-B871-B3A8AED0D342}"/>
+    <workbookView xWindow="3580" yWindow="4200" windowWidth="29400" windowHeight="18360" xr2:uid="{3554FB84-58A7-0742-B871-B3A8AED0D342}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
   <si>
     <t>season_id</t>
   </si>
@@ -219,13 +219,172 @@
   </si>
   <si>
     <t>Muhammed Emin Akar</t>
+  </si>
+  <si>
+    <t>Shang Kun</t>
+  </si>
+  <si>
+    <t>Cristian Pletea</t>
+  </si>
+  <si>
+    <t>Mattias Falck</t>
+  </si>
+  <si>
+    <t>Daniel Habesohn</t>
+  </si>
+  <si>
+    <t>Erik Schreyer</t>
+  </si>
+  <si>
+    <t>Alberto Mino</t>
+  </si>
+  <si>
+    <t>Hao Shuai</t>
+  </si>
+  <si>
+    <t>An Jaehyeon</t>
+  </si>
+  <si>
+    <t>Tiago Apolonia</t>
+  </si>
+  <si>
+    <t>Cui Qinglei</t>
+  </si>
+  <si>
+    <t>Abdel-Kader Salifou</t>
+  </si>
+  <si>
+    <t>Viktor Brodd</t>
+  </si>
+  <si>
+    <t>Kay Stumper</t>
+  </si>
+  <si>
+    <t>Kanak Jha</t>
+  </si>
+  <si>
+    <t>Ioannis Sgouropoulus</t>
+  </si>
+  <si>
+    <t>Vincent Schwickert</t>
+  </si>
+  <si>
+    <t>Deni Kozul</t>
+  </si>
+  <si>
+    <t>Ewout Oostwouder</t>
+  </si>
+  <si>
+    <t>Dimitrije Levajac</t>
+  </si>
+  <si>
+    <t>Samuel Kulczycki</t>
+  </si>
+  <si>
+    <t>Maciej Kubik</t>
+  </si>
+  <si>
+    <t>Hwang Minha</t>
+  </si>
+  <si>
+    <t>Emmanuel Lebesson</t>
+  </si>
+  <si>
+    <t>Dmitrij Mazunov</t>
+  </si>
+  <si>
+    <t>Cristian Tams</t>
+  </si>
+  <si>
+    <t>Quadri Aruna</t>
+  </si>
+  <si>
+    <t>Lam Siu Hang</t>
+  </si>
+  <si>
+    <t>Benno Oehme</t>
+  </si>
+  <si>
+    <t>Aleksandar Karakasevic</t>
+  </si>
+  <si>
+    <t>Tobias Sältzer</t>
+  </si>
+  <si>
+    <t>Lev Katsman</t>
+  </si>
+  <si>
+    <t>Maksim Grebnev</t>
+  </si>
+  <si>
+    <t>Rares Sipos</t>
+  </si>
+  <si>
+    <t>Nils Hohmeier</t>
+  </si>
+  <si>
+    <t>Manav Vikash Thakkar</t>
+  </si>
+  <si>
+    <t>Simon Berglund</t>
+  </si>
+  <si>
+    <t>Olav Kosolosky</t>
+  </si>
+  <si>
+    <t>Irvin Bertrand</t>
+  </si>
+  <si>
+    <t>Alexandre Cassin</t>
+  </si>
+  <si>
+    <t>Can Akkuzu</t>
+  </si>
+  <si>
+    <t>Elias Ranefur</t>
+  </si>
+  <si>
+    <t>Akito Itagaki</t>
+  </si>
+  <si>
+    <t>Tobi</t>
+  </si>
+  <si>
+    <t>Dillon Chambers</t>
+  </si>
+  <si>
+    <t>Aljaz Godec</t>
+  </si>
+  <si>
+    <t>Patrick Baum</t>
+  </si>
+  <si>
+    <t>Feng YI-Hsin</t>
+  </si>
+  <si>
+    <t>Wu Jiaji</t>
+  </si>
+  <si>
+    <t>Yuta Tanaka</t>
+  </si>
+  <si>
+    <t>Cedric Meissner</t>
+  </si>
+  <si>
+    <t>Dominik Scheja</t>
+  </si>
+  <si>
+    <t>Adam Janicki</t>
+  </si>
+  <si>
+    <t>Tayler Fox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,16 +392,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,12 +422,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF44B3E1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF44B3E1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF44B3E1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF44B3E1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -274,8 +523,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}" name="Tabelle1" displayName="Tabelle1" ref="A1:F56" totalsRowShown="0">
-  <autoFilter ref="A1:F56" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}" name="Tabelle1" displayName="Tabelle1" ref="A1:F244" totalsRowShown="0">
+  <autoFilter ref="A1:F244" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5FFD5168-76C6-3745-8355-AE04CCBB39A1}" name="name"/>
     <tableColumn id="2" xr3:uid="{43429FCF-2A4D-5F40-96E0-5BD9CEA6E97A}" name="team_id"/>
@@ -605,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430CB52-9B60-C84E-A8B4-10519045B484}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1737,6 +1986,3766 @@
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>56</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="5">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>57</v>
+      </c>
+      <c r="E58" s="5">
+        <v>9</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>58</v>
+      </c>
+      <c r="E59" s="2">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="5">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5">
+        <v>59</v>
+      </c>
+      <c r="E60" s="5">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2">
+        <v>60</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5">
+        <v>61</v>
+      </c>
+      <c r="E62" s="5">
+        <v>16</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>62</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>63</v>
+      </c>
+      <c r="E64" s="5">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5">
+        <v>65</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>66</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5">
+        <v>67</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>68</v>
+      </c>
+      <c r="E69" s="2">
+        <v>11</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5">
+        <v>69</v>
+      </c>
+      <c r="E70" s="5">
+        <v>15</v>
+      </c>
+      <c r="F70" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>70</v>
+      </c>
+      <c r="E71" s="2">
+        <v>16</v>
+      </c>
+      <c r="F71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5">
+        <v>71</v>
+      </c>
+      <c r="E72" s="5">
+        <v>5</v>
+      </c>
+      <c r="F72" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>72</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="5">
+        <v>10</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>73</v>
+      </c>
+      <c r="E74" s="5">
+        <v>23</v>
+      </c>
+      <c r="F74" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="2">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2">
+        <v>74</v>
+      </c>
+      <c r="E75" s="2">
+        <v>12</v>
+      </c>
+      <c r="F75" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="5">
+        <v>10</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5">
+        <v>75</v>
+      </c>
+      <c r="E76" s="5">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="2">
+        <v>10</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5</v>
+      </c>
+      <c r="F77" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="5">
+        <v>10</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5">
+        <v>77</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="2">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>78</v>
+      </c>
+      <c r="E79" s="2">
+        <v>13</v>
+      </c>
+      <c r="F79" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="5">
+        <v>6</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5">
+        <v>79</v>
+      </c>
+      <c r="E80" s="5">
+        <v>10</v>
+      </c>
+      <c r="F80" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="2">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="5">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5">
+        <v>81</v>
+      </c>
+      <c r="E82" s="5">
+        <v>11</v>
+      </c>
+      <c r="F82" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="5">
+        <v>4</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5">
+        <v>83</v>
+      </c>
+      <c r="E84" s="5">
+        <v>20</v>
+      </c>
+      <c r="F84" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>84</v>
+      </c>
+      <c r="E85" s="2">
+        <v>9</v>
+      </c>
+      <c r="F85" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="5">
+        <v>4</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5">
+        <v>85</v>
+      </c>
+      <c r="E86" s="5">
+        <v>11</v>
+      </c>
+      <c r="F86" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>86</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="5">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5">
+        <v>87</v>
+      </c>
+      <c r="E88" s="5">
+        <v>15</v>
+      </c>
+      <c r="F88" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="2">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2">
+        <v>88</v>
+      </c>
+      <c r="E89" s="2">
+        <v>6</v>
+      </c>
+      <c r="F89" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="5">
+        <v>5</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5">
+        <v>89</v>
+      </c>
+      <c r="E90" s="5">
+        <v>7</v>
+      </c>
+      <c r="F90" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="2">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>90</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="5">
+        <v>12</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>91</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="2">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2">
+        <v>6</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="5">
+        <v>12</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5">
+        <v>93</v>
+      </c>
+      <c r="E94" s="5">
+        <v>21</v>
+      </c>
+      <c r="F94" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="2">
+        <v>12</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2">
+        <v>94</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="5">
+        <v>12</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5">
+        <v>95</v>
+      </c>
+      <c r="E96" s="5">
+        <v>6</v>
+      </c>
+      <c r="F96" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="2">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2">
+        <v>96</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3</v>
+      </c>
+      <c r="F97" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="5">
+        <v>12</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5">
+        <v>97</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3</v>
+      </c>
+      <c r="F98" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="2">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2">
+        <v>98</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="5">
+        <v>8</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2</v>
+      </c>
+      <c r="D100" s="5">
+        <v>99</v>
+      </c>
+      <c r="E100" s="5">
+        <v>11</v>
+      </c>
+      <c r="F100" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2">
+        <v>20</v>
+      </c>
+      <c r="F101" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="5">
+        <v>8</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5">
+        <v>101</v>
+      </c>
+      <c r="E102" s="5">
+        <v>3</v>
+      </c>
+      <c r="F102" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="2">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>102</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="5">
+        <v>8</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2</v>
+      </c>
+      <c r="D104" s="5">
+        <v>103</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>104</v>
+      </c>
+      <c r="E105" s="2">
+        <v>16</v>
+      </c>
+      <c r="F105" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="5">
+        <v>5</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2</v>
+      </c>
+      <c r="D106" s="5">
+        <v>105</v>
+      </c>
+      <c r="E106" s="5">
+        <v>14</v>
+      </c>
+      <c r="F106" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2">
+        <v>106</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="5">
+        <v>5</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2</v>
+      </c>
+      <c r="D108" s="5">
+        <v>107</v>
+      </c>
+      <c r="E108" s="5">
+        <v>2</v>
+      </c>
+      <c r="F108" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>108</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="5">
+        <v>9</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5">
+        <v>109</v>
+      </c>
+      <c r="E110" s="5">
+        <v>7</v>
+      </c>
+      <c r="F110" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="2">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>110</v>
+      </c>
+      <c r="E111" s="2">
+        <v>10</v>
+      </c>
+      <c r="F111" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" s="5">
+        <v>9</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5">
+        <v>111</v>
+      </c>
+      <c r="E112" s="5">
+        <v>3</v>
+      </c>
+      <c r="F112" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="2">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2">
+        <v>112</v>
+      </c>
+      <c r="E113" s="2">
+        <v>3</v>
+      </c>
+      <c r="F113" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="5">
+        <v>9</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5">
+        <v>113</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0</v>
+      </c>
+      <c r="F114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="2">
+        <v>11</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2">
+        <v>114</v>
+      </c>
+      <c r="E115" s="2">
+        <v>4</v>
+      </c>
+      <c r="F115" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="5">
+        <v>11</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2</v>
+      </c>
+      <c r="D116" s="5">
+        <v>115</v>
+      </c>
+      <c r="E116" s="5">
+        <v>6</v>
+      </c>
+      <c r="F116" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="2">
+        <v>11</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2">
+        <v>116</v>
+      </c>
+      <c r="E117" s="2">
+        <v>2</v>
+      </c>
+      <c r="F117" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="5">
+        <v>11</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2</v>
+      </c>
+      <c r="D118" s="5">
+        <v>117</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F118" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2">
+        <v>118</v>
+      </c>
+      <c r="E119" s="2">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="5">
+        <v>2</v>
+      </c>
+      <c r="C120" s="5">
+        <v>3</v>
+      </c>
+      <c r="D120" s="5">
+        <v>119</v>
+      </c>
+      <c r="E120" s="5">
+        <v>15</v>
+      </c>
+      <c r="F120" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2">
+        <v>120</v>
+      </c>
+      <c r="E121" s="2">
+        <v>25</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2</v>
+      </c>
+      <c r="C122" s="5">
+        <v>3</v>
+      </c>
+      <c r="D122" s="5">
+        <v>121</v>
+      </c>
+      <c r="E122" s="5">
+        <v>11</v>
+      </c>
+      <c r="F122" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2">
+        <v>122</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="5">
+        <v>2</v>
+      </c>
+      <c r="C124" s="5">
+        <v>3</v>
+      </c>
+      <c r="D124" s="5">
+        <v>123</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
+      </c>
+      <c r="F124" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="2">
+        <v>3</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2">
+        <v>124</v>
+      </c>
+      <c r="E125" s="2">
+        <v>19</v>
+      </c>
+      <c r="F125" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3</v>
+      </c>
+      <c r="C126" s="5">
+        <v>3</v>
+      </c>
+      <c r="D126" s="5">
+        <v>125</v>
+      </c>
+      <c r="E126" s="5">
+        <v>15</v>
+      </c>
+      <c r="F126" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>126</v>
+      </c>
+      <c r="E127" s="2">
+        <v>18</v>
+      </c>
+      <c r="F127" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="5">
+        <v>3</v>
+      </c>
+      <c r="C128" s="5">
+        <v>3</v>
+      </c>
+      <c r="D128" s="5">
+        <v>127</v>
+      </c>
+      <c r="E128" s="5">
+        <v>3</v>
+      </c>
+      <c r="F128" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="2">
+        <v>3</v>
+      </c>
+      <c r="C129" s="2">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2">
+        <v>128</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130" s="5">
+        <v>3</v>
+      </c>
+      <c r="D130" s="5">
+        <v>129</v>
+      </c>
+      <c r="E130" s="5">
+        <v>15</v>
+      </c>
+      <c r="F130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2">
+        <v>130</v>
+      </c>
+      <c r="E131" s="2">
+        <v>26</v>
+      </c>
+      <c r="F131" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3</v>
+      </c>
+      <c r="D132" s="5">
+        <v>131</v>
+      </c>
+      <c r="E132" s="5">
+        <v>4</v>
+      </c>
+      <c r="F132" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2">
+        <v>132</v>
+      </c>
+      <c r="E133" s="2">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="5">
+        <v>1</v>
+      </c>
+      <c r="C134" s="5">
+        <v>3</v>
+      </c>
+      <c r="D134" s="5">
+        <v>133</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="2">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2">
+        <v>134</v>
+      </c>
+      <c r="E135" s="2">
+        <v>23</v>
+      </c>
+      <c r="F135" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="5">
+        <v>5</v>
+      </c>
+      <c r="C136" s="5">
+        <v>3</v>
+      </c>
+      <c r="D136" s="5">
+        <v>135</v>
+      </c>
+      <c r="E136" s="5">
+        <v>17</v>
+      </c>
+      <c r="F136" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2">
+        <v>136</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" s="5">
+        <v>5</v>
+      </c>
+      <c r="C138" s="5">
+        <v>3</v>
+      </c>
+      <c r="D138" s="5">
+        <v>137</v>
+      </c>
+      <c r="E138" s="5">
+        <v>6</v>
+      </c>
+      <c r="F138" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="2">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D139" s="2">
+        <v>138</v>
+      </c>
+      <c r="E139" s="2">
+        <v>2</v>
+      </c>
+      <c r="F139" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="5">
+        <v>12</v>
+      </c>
+      <c r="C140" s="5">
+        <v>3</v>
+      </c>
+      <c r="D140" s="5">
+        <v>139</v>
+      </c>
+      <c r="E140" s="5">
+        <v>1</v>
+      </c>
+      <c r="F140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" s="2">
+        <v>12</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="2">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2">
+        <v>17</v>
+      </c>
+      <c r="F141" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B142" s="5">
+        <v>12</v>
+      </c>
+      <c r="C142" s="5">
+        <v>3</v>
+      </c>
+      <c r="D142" s="5">
+        <v>141</v>
+      </c>
+      <c r="E142" s="5">
+        <v>14</v>
+      </c>
+      <c r="F142" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="2">
+        <v>12</v>
+      </c>
+      <c r="C143" s="2">
+        <v>3</v>
+      </c>
+      <c r="D143" s="2">
+        <v>142</v>
+      </c>
+      <c r="E143" s="2">
+        <v>10</v>
+      </c>
+      <c r="F143" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" s="5">
+        <v>12</v>
+      </c>
+      <c r="C144" s="5">
+        <v>3</v>
+      </c>
+      <c r="D144" s="5">
+        <v>143</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0</v>
+      </c>
+      <c r="F144" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="2">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2">
+        <v>144</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="5">
+        <v>10</v>
+      </c>
+      <c r="C146" s="5">
+        <v>3</v>
+      </c>
+      <c r="D146" s="5">
+        <v>145</v>
+      </c>
+      <c r="E146" s="5">
+        <v>25</v>
+      </c>
+      <c r="F146" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B147" s="2">
+        <v>10</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2">
+        <v>15</v>
+      </c>
+      <c r="F147" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="5">
+        <v>10</v>
+      </c>
+      <c r="C148" s="5">
+        <v>3</v>
+      </c>
+      <c r="D148" s="5">
+        <v>147</v>
+      </c>
+      <c r="E148" s="5">
+        <v>2</v>
+      </c>
+      <c r="F148" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" s="2">
+        <v>10</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2">
+        <v>148</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="5">
+        <v>10</v>
+      </c>
+      <c r="C150" s="5">
+        <v>3</v>
+      </c>
+      <c r="D150" s="5">
+        <v>149</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0</v>
+      </c>
+      <c r="F150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="2">
+        <v>4</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+      <c r="D151" s="2">
+        <v>150</v>
+      </c>
+      <c r="E151" s="2">
+        <v>20</v>
+      </c>
+      <c r="F151" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="5">
+        <v>4</v>
+      </c>
+      <c r="C152" s="5">
+        <v>3</v>
+      </c>
+      <c r="D152" s="5">
+        <v>151</v>
+      </c>
+      <c r="E152" s="5">
+        <v>12</v>
+      </c>
+      <c r="F152" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <v>4</v>
+      </c>
+      <c r="C153" s="2">
+        <v>3</v>
+      </c>
+      <c r="D153" s="2">
+        <v>152</v>
+      </c>
+      <c r="E153" s="2">
+        <v>4</v>
+      </c>
+      <c r="F153" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" s="5">
+        <v>4</v>
+      </c>
+      <c r="C154" s="5">
+        <v>3</v>
+      </c>
+      <c r="D154" s="5">
+        <v>153</v>
+      </c>
+      <c r="E154" s="5">
+        <v>1</v>
+      </c>
+      <c r="F154" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="2">
+        <v>8</v>
+      </c>
+      <c r="C155" s="2">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2">
+        <v>154</v>
+      </c>
+      <c r="E155" s="2">
+        <v>11</v>
+      </c>
+      <c r="F155" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="5">
+        <v>8</v>
+      </c>
+      <c r="C156" s="5">
+        <v>3</v>
+      </c>
+      <c r="D156" s="5">
+        <v>155</v>
+      </c>
+      <c r="E156" s="5">
+        <v>24</v>
+      </c>
+      <c r="F156" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B157" s="2">
+        <v>8</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3</v>
+      </c>
+      <c r="D157" s="2">
+        <v>156</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B158" s="5">
+        <v>8</v>
+      </c>
+      <c r="C158" s="5">
+        <v>3</v>
+      </c>
+      <c r="D158" s="5">
+        <v>157</v>
+      </c>
+      <c r="E158" s="5">
+        <v>5</v>
+      </c>
+      <c r="F158" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" s="2">
+        <v>6</v>
+      </c>
+      <c r="C159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D159" s="2">
+        <v>158</v>
+      </c>
+      <c r="E159" s="2">
+        <v>15</v>
+      </c>
+      <c r="F159" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" s="5">
+        <v>6</v>
+      </c>
+      <c r="C160" s="5">
+        <v>3</v>
+      </c>
+      <c r="D160" s="5">
+        <v>159</v>
+      </c>
+      <c r="E160" s="5">
+        <v>11</v>
+      </c>
+      <c r="F160" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" s="2">
+        <v>6</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3</v>
+      </c>
+      <c r="D161" s="2">
+        <v>160</v>
+      </c>
+      <c r="E161" s="2">
+        <v>10</v>
+      </c>
+      <c r="F161" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" s="5">
+        <v>6</v>
+      </c>
+      <c r="C162" s="5">
+        <v>3</v>
+      </c>
+      <c r="D162" s="5">
+        <v>161</v>
+      </c>
+      <c r="E162" s="5">
+        <v>3</v>
+      </c>
+      <c r="F162" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B163" s="2">
+        <v>5</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3</v>
+      </c>
+      <c r="D163" s="2">
+        <v>162</v>
+      </c>
+      <c r="E163" s="2">
+        <v>15</v>
+      </c>
+      <c r="F163" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="5">
+        <v>5</v>
+      </c>
+      <c r="C164" s="5">
+        <v>3</v>
+      </c>
+      <c r="D164" s="5">
+        <v>163</v>
+      </c>
+      <c r="E164" s="5">
+        <v>11</v>
+      </c>
+      <c r="F164" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B165" s="2">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2">
+        <v>164</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="5">
+        <v>5</v>
+      </c>
+      <c r="C166" s="5">
+        <v>3</v>
+      </c>
+      <c r="D166" s="5">
+        <v>165</v>
+      </c>
+      <c r="E166" s="5">
+        <v>4</v>
+      </c>
+      <c r="F166" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" s="2">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3</v>
+      </c>
+      <c r="D167" s="2">
+        <v>166</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168" s="5">
+        <v>9</v>
+      </c>
+      <c r="C168" s="5">
+        <v>3</v>
+      </c>
+      <c r="D168" s="5">
+        <v>167</v>
+      </c>
+      <c r="E168" s="5">
+        <v>6</v>
+      </c>
+      <c r="F168" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B169" s="2">
+        <v>9</v>
+      </c>
+      <c r="C169" s="2">
+        <v>3</v>
+      </c>
+      <c r="D169" s="2">
+        <v>168</v>
+      </c>
+      <c r="E169" s="2">
+        <v>4</v>
+      </c>
+      <c r="F169" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B170" s="5">
+        <v>9</v>
+      </c>
+      <c r="C170" s="5">
+        <v>3</v>
+      </c>
+      <c r="D170" s="5">
+        <v>169</v>
+      </c>
+      <c r="E170" s="5">
+        <v>4</v>
+      </c>
+      <c r="F170" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B171" s="2">
+        <v>9</v>
+      </c>
+      <c r="C171" s="2">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2">
+        <v>170</v>
+      </c>
+      <c r="E171" s="2">
+        <v>3</v>
+      </c>
+      <c r="F171" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="5">
+        <v>9</v>
+      </c>
+      <c r="C172" s="5">
+        <v>3</v>
+      </c>
+      <c r="D172" s="5">
+        <v>171</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="2">
+        <v>13</v>
+      </c>
+      <c r="C173" s="2">
+        <v>3</v>
+      </c>
+      <c r="D173" s="2">
+        <v>172</v>
+      </c>
+      <c r="E173" s="2">
+        <v>7</v>
+      </c>
+      <c r="F173" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174" s="5">
+        <v>13</v>
+      </c>
+      <c r="C174" s="5">
+        <v>3</v>
+      </c>
+      <c r="D174" s="5">
+        <v>173</v>
+      </c>
+      <c r="E174" s="5">
+        <v>3</v>
+      </c>
+      <c r="F174" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" s="2">
+        <v>13</v>
+      </c>
+      <c r="C175" s="2">
+        <v>3</v>
+      </c>
+      <c r="D175" s="2">
+        <v>174</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2</v>
+      </c>
+      <c r="F175" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B176" s="5">
+        <v>13</v>
+      </c>
+      <c r="C176" s="5">
+        <v>3</v>
+      </c>
+      <c r="D176" s="5">
+        <v>175</v>
+      </c>
+      <c r="E176" s="5">
+        <v>5</v>
+      </c>
+      <c r="F176" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B177" s="2">
+        <v>13</v>
+      </c>
+      <c r="C177" s="2">
+        <v>3</v>
+      </c>
+      <c r="D177" s="2">
+        <v>176</v>
+      </c>
+      <c r="E177" s="2">
+        <v>0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="5">
+        <v>2</v>
+      </c>
+      <c r="C178" s="5">
+        <v>4</v>
+      </c>
+      <c r="D178" s="5">
+        <v>177</v>
+      </c>
+      <c r="E178" s="5">
+        <v>12</v>
+      </c>
+      <c r="F178" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2</v>
+      </c>
+      <c r="C179" s="2">
+        <v>4</v>
+      </c>
+      <c r="D179" s="2">
+        <v>178</v>
+      </c>
+      <c r="E179" s="2">
+        <v>27</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2</v>
+      </c>
+      <c r="C180" s="5">
+        <v>4</v>
+      </c>
+      <c r="D180" s="5">
+        <v>179</v>
+      </c>
+      <c r="E180" s="5">
+        <v>9</v>
+      </c>
+      <c r="F180" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2</v>
+      </c>
+      <c r="C181" s="2">
+        <v>4</v>
+      </c>
+      <c r="D181" s="2">
+        <v>180</v>
+      </c>
+      <c r="E181" s="2">
+        <v>14</v>
+      </c>
+      <c r="F181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="5">
+        <v>2</v>
+      </c>
+      <c r="C182" s="5">
+        <v>4</v>
+      </c>
+      <c r="D182" s="5">
+        <v>181</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0</v>
+      </c>
+      <c r="F182" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4</v>
+      </c>
+      <c r="D183" s="2">
+        <v>182</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="5">
+        <v>3</v>
+      </c>
+      <c r="C184" s="5">
+        <v>4</v>
+      </c>
+      <c r="D184" s="5">
+        <v>183</v>
+      </c>
+      <c r="E184" s="5">
+        <v>15</v>
+      </c>
+      <c r="F184" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="2">
+        <v>3</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4</v>
+      </c>
+      <c r="D185" s="2">
+        <v>184</v>
+      </c>
+      <c r="E185" s="2">
+        <v>25</v>
+      </c>
+      <c r="F185" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B186" s="5">
+        <v>3</v>
+      </c>
+      <c r="C186" s="5">
+        <v>4</v>
+      </c>
+      <c r="D186" s="5">
+        <v>185</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="2">
+        <v>3</v>
+      </c>
+      <c r="C187" s="2">
+        <v>4</v>
+      </c>
+      <c r="D187" s="2">
+        <v>186</v>
+      </c>
+      <c r="E187" s="2">
+        <v>11</v>
+      </c>
+      <c r="F187" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B188" s="5">
+        <v>3</v>
+      </c>
+      <c r="C188" s="5">
+        <v>4</v>
+      </c>
+      <c r="D188" s="5">
+        <v>187</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0</v>
+      </c>
+      <c r="F188" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" s="2">
+        <v>3</v>
+      </c>
+      <c r="C189" s="2">
+        <v>4</v>
+      </c>
+      <c r="D189" s="2">
+        <v>188</v>
+      </c>
+      <c r="E189" s="2">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B190" s="5">
+        <v>3</v>
+      </c>
+      <c r="C190" s="5">
+        <v>4</v>
+      </c>
+      <c r="D190" s="5">
+        <v>189</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0</v>
+      </c>
+      <c r="F190" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B191" s="2">
+        <v>3</v>
+      </c>
+      <c r="C191" s="2">
+        <v>4</v>
+      </c>
+      <c r="D191" s="2">
+        <v>190</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192" s="5">
+        <v>6</v>
+      </c>
+      <c r="C192" s="5">
+        <v>4</v>
+      </c>
+      <c r="D192" s="5">
+        <v>191</v>
+      </c>
+      <c r="E192" s="5">
+        <v>14</v>
+      </c>
+      <c r="F192" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6</v>
+      </c>
+      <c r="C193" s="2">
+        <v>4</v>
+      </c>
+      <c r="D193" s="2">
+        <v>192</v>
+      </c>
+      <c r="E193" s="2">
+        <v>4</v>
+      </c>
+      <c r="F193" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194" s="5">
+        <v>6</v>
+      </c>
+      <c r="C194" s="5">
+        <v>4</v>
+      </c>
+      <c r="D194" s="5">
+        <v>193</v>
+      </c>
+      <c r="E194" s="5">
+        <v>20</v>
+      </c>
+      <c r="F194" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B195" s="2">
+        <v>6</v>
+      </c>
+      <c r="C195" s="2">
+        <v>4</v>
+      </c>
+      <c r="D195" s="2">
+        <v>194</v>
+      </c>
+      <c r="E195" s="2">
+        <v>8</v>
+      </c>
+      <c r="F195" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B196" s="5">
+        <v>5</v>
+      </c>
+      <c r="C196" s="5">
+        <v>4</v>
+      </c>
+      <c r="D196" s="5">
+        <v>195</v>
+      </c>
+      <c r="E196" s="5">
+        <v>18</v>
+      </c>
+      <c r="F196" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197" s="2">
+        <v>5</v>
+      </c>
+      <c r="C197" s="2">
+        <v>4</v>
+      </c>
+      <c r="D197" s="2">
+        <v>196</v>
+      </c>
+      <c r="E197" s="2">
+        <v>20</v>
+      </c>
+      <c r="F197" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" s="5">
+        <v>5</v>
+      </c>
+      <c r="C198" s="5">
+        <v>4</v>
+      </c>
+      <c r="D198" s="5">
+        <v>197</v>
+      </c>
+      <c r="E198" s="5">
+        <v>5</v>
+      </c>
+      <c r="F198" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="2">
+        <v>5</v>
+      </c>
+      <c r="C199" s="2">
+        <v>4</v>
+      </c>
+      <c r="D199" s="2">
+        <v>198</v>
+      </c>
+      <c r="E199" s="2">
+        <v>5</v>
+      </c>
+      <c r="F199" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="5">
+        <v>1</v>
+      </c>
+      <c r="C200" s="5">
+        <v>4</v>
+      </c>
+      <c r="D200" s="5">
+        <v>199</v>
+      </c>
+      <c r="E200" s="5">
+        <v>12</v>
+      </c>
+      <c r="F200" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4</v>
+      </c>
+      <c r="D201" s="2">
+        <v>200</v>
+      </c>
+      <c r="E201" s="2">
+        <v>13</v>
+      </c>
+      <c r="F201" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+      <c r="C202" s="5">
+        <v>4</v>
+      </c>
+      <c r="D202" s="5">
+        <v>201</v>
+      </c>
+      <c r="E202" s="5">
+        <v>9</v>
+      </c>
+      <c r="F202" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2">
+        <v>4</v>
+      </c>
+      <c r="D203" s="2">
+        <v>202</v>
+      </c>
+      <c r="E203" s="2">
+        <v>8</v>
+      </c>
+      <c r="F203" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204" s="5">
+        <v>1</v>
+      </c>
+      <c r="C204" s="5">
+        <v>4</v>
+      </c>
+      <c r="D204" s="5">
+        <v>203</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0</v>
+      </c>
+      <c r="F204" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="2">
+        <v>4</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4</v>
+      </c>
+      <c r="D205" s="2">
+        <v>204</v>
+      </c>
+      <c r="E205" s="2">
+        <v>25</v>
+      </c>
+      <c r="F205" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206" s="5">
+        <v>4</v>
+      </c>
+      <c r="C206" s="5">
+        <v>4</v>
+      </c>
+      <c r="D206" s="5">
+        <v>205</v>
+      </c>
+      <c r="E206" s="5">
+        <v>9</v>
+      </c>
+      <c r="F206" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207" s="2">
+        <v>4</v>
+      </c>
+      <c r="C207" s="2">
+        <v>4</v>
+      </c>
+      <c r="D207" s="2">
+        <v>206</v>
+      </c>
+      <c r="E207" s="2">
+        <v>2</v>
+      </c>
+      <c r="F207" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" s="5">
+        <v>4</v>
+      </c>
+      <c r="C208" s="5">
+        <v>4</v>
+      </c>
+      <c r="D208" s="5">
+        <v>207</v>
+      </c>
+      <c r="E208" s="5">
+        <v>6</v>
+      </c>
+      <c r="F208" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" s="2">
+        <v>12</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4</v>
+      </c>
+      <c r="D209" s="2">
+        <v>208</v>
+      </c>
+      <c r="E209" s="2">
+        <v>17</v>
+      </c>
+      <c r="F209" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="5">
+        <v>12</v>
+      </c>
+      <c r="C210" s="5">
+        <v>4</v>
+      </c>
+      <c r="D210" s="5">
+        <v>209</v>
+      </c>
+      <c r="E210" s="5">
+        <v>4</v>
+      </c>
+      <c r="F210" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B211" s="2">
+        <v>12</v>
+      </c>
+      <c r="C211" s="2">
+        <v>4</v>
+      </c>
+      <c r="D211" s="2">
+        <v>210</v>
+      </c>
+      <c r="E211" s="2">
+        <v>8</v>
+      </c>
+      <c r="F211" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B212" s="5">
+        <v>12</v>
+      </c>
+      <c r="C212" s="5">
+        <v>4</v>
+      </c>
+      <c r="D212" s="5">
+        <v>211</v>
+      </c>
+      <c r="E212" s="5">
+        <v>4</v>
+      </c>
+      <c r="F212" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B213" s="2">
+        <v>12</v>
+      </c>
+      <c r="C213" s="2">
+        <v>4</v>
+      </c>
+      <c r="D213" s="2">
+        <v>212</v>
+      </c>
+      <c r="E213" s="2">
+        <v>6</v>
+      </c>
+      <c r="F213" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B214" s="5">
+        <v>8</v>
+      </c>
+      <c r="C214" s="5">
+        <v>4</v>
+      </c>
+      <c r="D214" s="5">
+        <v>213</v>
+      </c>
+      <c r="E214" s="5">
+        <v>13</v>
+      </c>
+      <c r="F214" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215" s="2">
+        <v>8</v>
+      </c>
+      <c r="C215" s="2">
+        <v>4</v>
+      </c>
+      <c r="D215" s="2">
+        <v>214</v>
+      </c>
+      <c r="E215" s="2">
+        <v>11</v>
+      </c>
+      <c r="F215" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B216" s="5">
+        <v>8</v>
+      </c>
+      <c r="C216" s="5">
+        <v>4</v>
+      </c>
+      <c r="D216" s="5">
+        <v>215</v>
+      </c>
+      <c r="E216" s="5">
+        <v>3</v>
+      </c>
+      <c r="F216" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" s="2">
+        <v>8</v>
+      </c>
+      <c r="C217" s="2">
+        <v>4</v>
+      </c>
+      <c r="D217" s="2">
+        <v>216</v>
+      </c>
+      <c r="E217" s="2">
+        <v>6</v>
+      </c>
+      <c r="F217" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B218" s="5">
+        <v>8</v>
+      </c>
+      <c r="C218" s="5">
+        <v>4</v>
+      </c>
+      <c r="D218" s="5">
+        <v>217</v>
+      </c>
+      <c r="E218" s="5">
+        <v>0</v>
+      </c>
+      <c r="F218" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B219" s="2">
+        <v>10</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4</v>
+      </c>
+      <c r="D219" s="2">
+        <v>218</v>
+      </c>
+      <c r="E219" s="2">
+        <v>23</v>
+      </c>
+      <c r="F219" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B220" s="5">
+        <v>10</v>
+      </c>
+      <c r="C220" s="5">
+        <v>4</v>
+      </c>
+      <c r="D220" s="5">
+        <v>219</v>
+      </c>
+      <c r="E220" s="5">
+        <v>13</v>
+      </c>
+      <c r="F220" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B221" s="2">
+        <v>10</v>
+      </c>
+      <c r="C221" s="2">
+        <v>4</v>
+      </c>
+      <c r="D221" s="2">
+        <v>220</v>
+      </c>
+      <c r="E221" s="2">
+        <v>0</v>
+      </c>
+      <c r="F221" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" s="5">
+        <v>10</v>
+      </c>
+      <c r="C222" s="5">
+        <v>4</v>
+      </c>
+      <c r="D222" s="5">
+        <v>221</v>
+      </c>
+      <c r="E222" s="5">
+        <v>4</v>
+      </c>
+      <c r="F222" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B223" s="2">
+        <v>10</v>
+      </c>
+      <c r="C223" s="2">
+        <v>4</v>
+      </c>
+      <c r="D223" s="2">
+        <v>222</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224" s="5">
+        <v>7</v>
+      </c>
+      <c r="C224" s="5">
+        <v>4</v>
+      </c>
+      <c r="D224" s="5">
+        <v>223</v>
+      </c>
+      <c r="E224" s="5">
+        <v>21</v>
+      </c>
+      <c r="F224" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B225" s="2">
+        <v>7</v>
+      </c>
+      <c r="C225" s="2">
+        <v>4</v>
+      </c>
+      <c r="D225" s="2">
+        <v>224</v>
+      </c>
+      <c r="E225" s="2">
+        <v>7</v>
+      </c>
+      <c r="F225" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B226" s="5">
+        <v>7</v>
+      </c>
+      <c r="C226" s="5">
+        <v>4</v>
+      </c>
+      <c r="D226" s="5">
+        <v>225</v>
+      </c>
+      <c r="E226" s="5">
+        <v>1</v>
+      </c>
+      <c r="F226" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227" s="2">
+        <v>7</v>
+      </c>
+      <c r="C227" s="2">
+        <v>4</v>
+      </c>
+      <c r="D227" s="2">
+        <v>226</v>
+      </c>
+      <c r="E227" s="2">
+        <v>5</v>
+      </c>
+      <c r="F227" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B228" s="5">
+        <v>7</v>
+      </c>
+      <c r="C228" s="5">
+        <v>4</v>
+      </c>
+      <c r="D228" s="5">
+        <v>227</v>
+      </c>
+      <c r="E228" s="5">
+        <v>1</v>
+      </c>
+      <c r="F228" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B229" s="2">
+        <v>7</v>
+      </c>
+      <c r="C229" s="2">
+        <v>4</v>
+      </c>
+      <c r="D229" s="2">
+        <v>228</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B230" s="5">
+        <v>7</v>
+      </c>
+      <c r="C230" s="5">
+        <v>4</v>
+      </c>
+      <c r="D230" s="5">
+        <v>229</v>
+      </c>
+      <c r="E230" s="5">
+        <v>0</v>
+      </c>
+      <c r="F230" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B231" s="2">
+        <v>9</v>
+      </c>
+      <c r="C231" s="2">
+        <v>4</v>
+      </c>
+      <c r="D231" s="2">
+        <v>230</v>
+      </c>
+      <c r="E231" s="2">
+        <v>14</v>
+      </c>
+      <c r="F231" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B232" s="5">
+        <v>9</v>
+      </c>
+      <c r="C232" s="5">
+        <v>4</v>
+      </c>
+      <c r="D232" s="5">
+        <v>231</v>
+      </c>
+      <c r="E232" s="5">
+        <v>3</v>
+      </c>
+      <c r="F232" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B233" s="2">
+        <v>9</v>
+      </c>
+      <c r="C233" s="2">
+        <v>4</v>
+      </c>
+      <c r="D233" s="2">
+        <v>232</v>
+      </c>
+      <c r="E233" s="2">
+        <v>3</v>
+      </c>
+      <c r="F233" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B234" s="5">
+        <v>9</v>
+      </c>
+      <c r="C234" s="5">
+        <v>4</v>
+      </c>
+      <c r="D234" s="5">
+        <v>233</v>
+      </c>
+      <c r="E234" s="5">
+        <v>7</v>
+      </c>
+      <c r="F234" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B235" s="2">
+        <v>9</v>
+      </c>
+      <c r="C235" s="2">
+        <v>4</v>
+      </c>
+      <c r="D235" s="2">
+        <v>234</v>
+      </c>
+      <c r="E235" s="2">
+        <v>1</v>
+      </c>
+      <c r="F235" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B236" s="5">
+        <v>9</v>
+      </c>
+      <c r="C236" s="5">
+        <v>4</v>
+      </c>
+      <c r="D236" s="5">
+        <v>235</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0</v>
+      </c>
+      <c r="F236" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B237" s="2">
+        <v>13</v>
+      </c>
+      <c r="C237" s="2">
+        <v>4</v>
+      </c>
+      <c r="D237" s="2">
+        <v>236</v>
+      </c>
+      <c r="E237" s="2">
+        <v>7</v>
+      </c>
+      <c r="F237" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B238" s="5">
+        <v>13</v>
+      </c>
+      <c r="C238" s="5">
+        <v>4</v>
+      </c>
+      <c r="D238" s="5">
+        <v>237</v>
+      </c>
+      <c r="E238" s="5">
+        <v>3</v>
+      </c>
+      <c r="F238" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B239" s="2">
+        <v>13</v>
+      </c>
+      <c r="C239" s="2">
+        <v>4</v>
+      </c>
+      <c r="D239" s="2">
+        <v>238</v>
+      </c>
+      <c r="E239" s="2">
+        <v>7</v>
+      </c>
+      <c r="F239" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B240" s="5">
+        <v>13</v>
+      </c>
+      <c r="C240" s="5">
+        <v>4</v>
+      </c>
+      <c r="D240" s="5">
+        <v>239</v>
+      </c>
+      <c r="E240" s="5">
+        <v>1</v>
+      </c>
+      <c r="F240" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B241" s="2">
+        <v>13</v>
+      </c>
+      <c r="C241" s="2">
+        <v>4</v>
+      </c>
+      <c r="D241" s="2">
+        <v>240</v>
+      </c>
+      <c r="E241" s="2">
+        <v>1</v>
+      </c>
+      <c r="F241" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B242" s="5">
+        <v>13</v>
+      </c>
+      <c r="C242" s="5">
+        <v>4</v>
+      </c>
+      <c r="D242" s="5">
+        <v>241</v>
+      </c>
+      <c r="E242" s="5">
+        <v>0</v>
+      </c>
+      <c r="F242" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B243" s="2">
+        <v>13</v>
+      </c>
+      <c r="C243" s="2">
+        <v>4</v>
+      </c>
+      <c r="D243" s="2">
+        <v>242</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B244" s="8">
+        <v>13</v>
+      </c>
+      <c r="C244" s="8">
+        <v>4</v>
+      </c>
+      <c r="D244" s="8">
+        <v>243</v>
+      </c>
+      <c r="E244" s="8">
+        <v>0</v>
+      </c>
+      <c r="F244" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Player_data.xlsx
+++ b/Player_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmohling/Desktop/Tryout/TTBL-AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3DF686-EA9E-D24A-8BFD-CAA2E33C1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C5C5CD-EDD7-1046-B8BA-678DAFE495E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4200" windowWidth="29400" windowHeight="18360" xr2:uid="{3554FB84-58A7-0742-B871-B3A8AED0D342}"/>
+    <workbookView xWindow="38400" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{3554FB84-58A7-0742-B871-B3A8AED0D342}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="170">
   <si>
     <t>season_id</t>
   </si>
@@ -378,6 +378,174 @@
   </si>
   <si>
     <t>Tayler Fox</t>
+  </si>
+  <si>
+    <t>Cedric Nuytinck</t>
+  </si>
+  <si>
+    <t>Takuya Jin</t>
+  </si>
+  <si>
+    <t>Abdullah Talha Yigenler</t>
+  </si>
+  <si>
+    <t>Shunsuke Togami</t>
+  </si>
+  <si>
+    <t>Yong Fu</t>
+  </si>
+  <si>
+    <t>Kim Taehyun</t>
+  </si>
+  <si>
+    <t>Ryota Shimmyo</t>
+  </si>
+  <si>
+    <t>Yukiya Uda</t>
+  </si>
+  <si>
+    <t>Dimitrij Ovtcharov</t>
+  </si>
+  <si>
+    <t>Lin Yun-Ju</t>
+  </si>
+  <si>
+    <t>Truls Möregardh</t>
+  </si>
+  <si>
+    <t>Nikita Artemenko</t>
+  </si>
+  <si>
+    <t>Romain Ruiz</t>
+  </si>
+  <si>
+    <t>Samuel Walker</t>
+  </si>
+  <si>
+    <t>Nikola Grujic</t>
+  </si>
+  <si>
+    <t>Wong Chun Ting</t>
+  </si>
+  <si>
+    <t>Qing Yu Meng</t>
+  </si>
+  <si>
+    <t>Yuto Muramatsu</t>
+  </si>
+  <si>
+    <t>Andrei Putuntica</t>
+  </si>
+  <si>
+    <t>Luka Mladenovic</t>
+  </si>
+  <si>
+    <t>Carlo Rossi</t>
+  </si>
+  <si>
+    <t>Eduard Ionescu</t>
+  </si>
+  <si>
+    <t>Borgar Haug</t>
+  </si>
+  <si>
+    <t>Jin Ueda</t>
+  </si>
+  <si>
+    <t>Nico Müller</t>
+  </si>
+  <si>
+    <t>Hayate Suzuki</t>
+  </si>
+  <si>
+    <t>Adrien Rassenfosse</t>
+  </si>
+  <si>
+    <t>Markus Grothe</t>
+  </si>
+  <si>
+    <t>Frederik Duda</t>
+  </si>
+  <si>
+    <t>Rafael Turrini</t>
+  </si>
+  <si>
+    <t>Timothy Falconnier</t>
+  </si>
+  <si>
+    <t>Xavier Dixon</t>
+  </si>
+  <si>
+    <t>Chuang Chih-Yuan</t>
+  </si>
+  <si>
+    <t>Thibault Poret</t>
+  </si>
+  <si>
+    <t>Li Yongyin</t>
+  </si>
+  <si>
+    <t>Dennis Müller</t>
+  </si>
+  <si>
+    <t>Johannes Willeke</t>
+  </si>
+  <si>
+    <t>Leonardo Iizuka Kenzo</t>
+  </si>
+  <si>
+    <t>Tiago Abiodun</t>
+  </si>
+  <si>
+    <t>Bogdan Pugna</t>
+  </si>
+  <si>
+    <t>Wang Lichen</t>
+  </si>
+  <si>
+    <t>Kao Cheng-Jui</t>
+  </si>
+  <si>
+    <t>Hsu Hsien-Chia</t>
+  </si>
+  <si>
+    <t>Thorsten Mähner</t>
+  </si>
+  <si>
+    <t>Chang Yu-An</t>
+  </si>
+  <si>
+    <t>Huang Yan-Cheng</t>
+  </si>
+  <si>
+    <t>Leo de Nodrest</t>
+  </si>
+  <si>
+    <t>Guilherme Teodoro</t>
+  </si>
+  <si>
+    <t>Louis Price</t>
+  </si>
+  <si>
+    <t>Thomas Maynard</t>
+  </si>
+  <si>
+    <t>Erik Bottroff</t>
+  </si>
+  <si>
+    <t>Björn Helbing</t>
+  </si>
+  <si>
+    <t>Csaba Andras</t>
+  </si>
+  <si>
+    <t>Yuma Tsuboi</t>
+  </si>
+  <si>
+    <t>Alan Hadzikaric</t>
+  </si>
+  <si>
+    <t>Marlon Börner</t>
   </si>
 </sst>
 </file>
@@ -509,7 +677,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -523,13 +695,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}" name="Tabelle1" displayName="Tabelle1" ref="A1:F244" totalsRowShown="0">
-  <autoFilter ref="A1:F244" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}" name="Tabelle1" displayName="Tabelle1" ref="A1:F444" totalsRowShown="0">
+  <autoFilter ref="A1:F444" xr:uid="{05A98680-F6AA-3C44-81CA-7F18F36E88E1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5FFD5168-76C6-3745-8355-AE04CCBB39A1}" name="name"/>
     <tableColumn id="2" xr3:uid="{43429FCF-2A4D-5F40-96E0-5BD9CEA6E97A}" name="team_id"/>
     <tableColumn id="3" xr3:uid="{C2510ED3-B09A-F841-952B-AD935BF6518A}" name="season_id"/>
-    <tableColumn id="4" xr3:uid="{B852F50D-1091-2C49-8E03-43BEDF9D990A}" name="world_ranking"/>
+    <tableColumn id="4" xr3:uid="{B852F50D-1091-2C49-8E03-43BEDF9D990A}" name="world_ranking" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.SEQUENCE(496)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{55A5816B-C073-DB41-BEBC-CFFEC2154D01}" name="wins"/>
     <tableColumn id="6" xr3:uid="{13A527A2-7CB1-6D48-A6C9-B59B82827C75}" name="losses"/>
   </tableColumns>
@@ -854,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430CB52-9B60-C84E-A8B4-10519045B484}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1996,7 +2170,7 @@
       <c r="C57" s="2">
         <v>2</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>56</v>
       </c>
       <c r="E57" s="2">
@@ -2016,7 +2190,7 @@
       <c r="C58" s="5">
         <v>2</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58">
         <v>57</v>
       </c>
       <c r="E58" s="5">
@@ -2036,7 +2210,7 @@
       <c r="C59" s="2">
         <v>2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>58</v>
       </c>
       <c r="E59" s="2">
@@ -2056,7 +2230,7 @@
       <c r="C60" s="5">
         <v>2</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60">
         <v>59</v>
       </c>
       <c r="E60" s="5">
@@ -2076,7 +2250,7 @@
       <c r="C61" s="2">
         <v>2</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>60</v>
       </c>
       <c r="E61" s="2">
@@ -2096,7 +2270,7 @@
       <c r="C62" s="5">
         <v>2</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62">
         <v>61</v>
       </c>
       <c r="E62" s="5">
@@ -2116,7 +2290,7 @@
       <c r="C63" s="2">
         <v>2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>62</v>
       </c>
       <c r="E63" s="2">
@@ -2136,7 +2310,7 @@
       <c r="C64" s="5">
         <v>2</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64">
         <v>63</v>
       </c>
       <c r="E64" s="5">
@@ -2156,7 +2330,7 @@
       <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>64</v>
       </c>
       <c r="E65" s="2">
@@ -2176,7 +2350,7 @@
       <c r="C66" s="5">
         <v>2</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66">
         <v>65</v>
       </c>
       <c r="E66" s="5">
@@ -2196,7 +2370,7 @@
       <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>66</v>
       </c>
       <c r="E67" s="2">
@@ -2216,7 +2390,7 @@
       <c r="C68" s="5">
         <v>2</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68">
         <v>67</v>
       </c>
       <c r="E68" s="5">
@@ -2236,7 +2410,7 @@
       <c r="C69" s="2">
         <v>2</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
         <v>68</v>
       </c>
       <c r="E69" s="2">
@@ -2256,7 +2430,7 @@
       <c r="C70" s="5">
         <v>2</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70">
         <v>69</v>
       </c>
       <c r="E70" s="5">
@@ -2276,7 +2450,7 @@
       <c r="C71" s="2">
         <v>2</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
         <v>70</v>
       </c>
       <c r="E71" s="2">
@@ -2296,7 +2470,7 @@
       <c r="C72" s="5">
         <v>2</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72">
         <v>71</v>
       </c>
       <c r="E72" s="5">
@@ -2316,7 +2490,7 @@
       <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>72</v>
       </c>
       <c r="E73" s="2">
@@ -2336,7 +2510,7 @@
       <c r="C74" s="5">
         <v>2</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74">
         <v>73</v>
       </c>
       <c r="E74" s="5">
@@ -2356,7 +2530,7 @@
       <c r="C75" s="2">
         <v>2</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>74</v>
       </c>
       <c r="E75" s="2">
@@ -2376,7 +2550,7 @@
       <c r="C76" s="5">
         <v>2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76">
         <v>75</v>
       </c>
       <c r="E76" s="5">
@@ -2396,7 +2570,7 @@
       <c r="C77" s="2">
         <v>2</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>76</v>
       </c>
       <c r="E77" s="2">
@@ -2416,7 +2590,7 @@
       <c r="C78" s="5">
         <v>2</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78">
         <v>77</v>
       </c>
       <c r="E78" s="5">
@@ -2436,7 +2610,7 @@
       <c r="C79" s="2">
         <v>2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>78</v>
       </c>
       <c r="E79" s="2">
@@ -2456,7 +2630,7 @@
       <c r="C80" s="5">
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80">
         <v>79</v>
       </c>
       <c r="E80" s="5">
@@ -2476,7 +2650,7 @@
       <c r="C81" s="2">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>80</v>
       </c>
       <c r="E81" s="2">
@@ -2496,7 +2670,7 @@
       <c r="C82" s="5">
         <v>2</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82">
         <v>81</v>
       </c>
       <c r="E82" s="5">
@@ -2516,7 +2690,7 @@
       <c r="C83" s="2">
         <v>2</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>82</v>
       </c>
       <c r="E83" s="2">
@@ -2536,7 +2710,7 @@
       <c r="C84" s="5">
         <v>2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84">
         <v>83</v>
       </c>
       <c r="E84" s="5">
@@ -2556,7 +2730,7 @@
       <c r="C85" s="2">
         <v>2</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>84</v>
       </c>
       <c r="E85" s="2">
@@ -2576,7 +2750,7 @@
       <c r="C86" s="5">
         <v>2</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86">
         <v>85</v>
       </c>
       <c r="E86" s="5">
@@ -2596,7 +2770,7 @@
       <c r="C87" s="2">
         <v>2</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>86</v>
       </c>
       <c r="E87" s="2">
@@ -2616,7 +2790,7 @@
       <c r="C88" s="5">
         <v>2</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88">
         <v>87</v>
       </c>
       <c r="E88" s="5">
@@ -2636,7 +2810,7 @@
       <c r="C89" s="2">
         <v>2</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>88</v>
       </c>
       <c r="E89" s="2">
@@ -2656,7 +2830,7 @@
       <c r="C90" s="5">
         <v>2</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90">
         <v>89</v>
       </c>
       <c r="E90" s="5">
@@ -2676,7 +2850,7 @@
       <c r="C91" s="2">
         <v>2</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
         <v>90</v>
       </c>
       <c r="E91" s="2">
@@ -2696,7 +2870,7 @@
       <c r="C92" s="5">
         <v>2</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92">
         <v>91</v>
       </c>
       <c r="E92" s="5">
@@ -2716,7 +2890,7 @@
       <c r="C93" s="2">
         <v>2</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>92</v>
       </c>
       <c r="E93" s="2">
@@ -2736,7 +2910,7 @@
       <c r="C94" s="5">
         <v>2</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94">
         <v>93</v>
       </c>
       <c r="E94" s="5">
@@ -2756,7 +2930,7 @@
       <c r="C95" s="2">
         <v>2</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>94</v>
       </c>
       <c r="E95" s="2">
@@ -2776,7 +2950,7 @@
       <c r="C96" s="5">
         <v>2</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96">
         <v>95</v>
       </c>
       <c r="E96" s="5">
@@ -2796,7 +2970,7 @@
       <c r="C97" s="2">
         <v>2</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
         <v>96</v>
       </c>
       <c r="E97" s="2">
@@ -2816,7 +2990,7 @@
       <c r="C98" s="5">
         <v>2</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98">
         <v>97</v>
       </c>
       <c r="E98" s="5">
@@ -2836,7 +3010,7 @@
       <c r="C99" s="2">
         <v>2</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
         <v>98</v>
       </c>
       <c r="E99" s="2">
@@ -2856,7 +3030,7 @@
       <c r="C100" s="5">
         <v>2</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100">
         <v>99</v>
       </c>
       <c r="E100" s="5">
@@ -2876,7 +3050,7 @@
       <c r="C101" s="2">
         <v>2</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
         <v>100</v>
       </c>
       <c r="E101" s="2">
@@ -2896,7 +3070,7 @@
       <c r="C102" s="5">
         <v>2</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102">
         <v>101</v>
       </c>
       <c r="E102" s="5">
@@ -2916,7 +3090,7 @@
       <c r="C103" s="2">
         <v>2</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>102</v>
       </c>
       <c r="E103" s="2">
@@ -2936,7 +3110,7 @@
       <c r="C104" s="5">
         <v>2</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104">
         <v>103</v>
       </c>
       <c r="E104" s="5">
@@ -2956,7 +3130,7 @@
       <c r="C105" s="2">
         <v>2</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>104</v>
       </c>
       <c r="E105" s="2">
@@ -2976,7 +3150,7 @@
       <c r="C106" s="5">
         <v>2</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106">
         <v>105</v>
       </c>
       <c r="E106" s="5">
@@ -2996,7 +3170,7 @@
       <c r="C107" s="2">
         <v>2</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>106</v>
       </c>
       <c r="E107" s="2">
@@ -3016,7 +3190,7 @@
       <c r="C108" s="5">
         <v>2</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108">
         <v>107</v>
       </c>
       <c r="E108" s="5">
@@ -3036,7 +3210,7 @@
       <c r="C109" s="2">
         <v>2</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>108</v>
       </c>
       <c r="E109" s="2">
@@ -3056,7 +3230,7 @@
       <c r="C110" s="5">
         <v>2</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110">
         <v>109</v>
       </c>
       <c r="E110" s="5">
@@ -3076,7 +3250,7 @@
       <c r="C111" s="2">
         <v>2</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>110</v>
       </c>
       <c r="E111" s="2">
@@ -3096,7 +3270,7 @@
       <c r="C112" s="5">
         <v>2</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112">
         <v>111</v>
       </c>
       <c r="E112" s="5">
@@ -3116,7 +3290,7 @@
       <c r="C113" s="2">
         <v>2</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>112</v>
       </c>
       <c r="E113" s="2">
@@ -3136,7 +3310,7 @@
       <c r="C114" s="5">
         <v>2</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114">
         <v>113</v>
       </c>
       <c r="E114" s="5">
@@ -3156,7 +3330,7 @@
       <c r="C115" s="2">
         <v>2</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>114</v>
       </c>
       <c r="E115" s="2">
@@ -3176,7 +3350,7 @@
       <c r="C116" s="5">
         <v>2</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116">
         <v>115</v>
       </c>
       <c r="E116" s="5">
@@ -3196,7 +3370,7 @@
       <c r="C117" s="2">
         <v>2</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>116</v>
       </c>
       <c r="E117" s="2">
@@ -3216,7 +3390,7 @@
       <c r="C118" s="5">
         <v>2</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118">
         <v>117</v>
       </c>
       <c r="E118" s="5">
@@ -3236,7 +3410,7 @@
       <c r="C119" s="2">
         <v>3</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>118</v>
       </c>
       <c r="E119" s="2">
@@ -3256,7 +3430,7 @@
       <c r="C120" s="5">
         <v>3</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120">
         <v>119</v>
       </c>
       <c r="E120" s="5">
@@ -3276,7 +3450,7 @@
       <c r="C121" s="2">
         <v>3</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>120</v>
       </c>
       <c r="E121" s="2">
@@ -3296,7 +3470,7 @@
       <c r="C122" s="5">
         <v>3</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122">
         <v>121</v>
       </c>
       <c r="E122" s="5">
@@ -3316,7 +3490,7 @@
       <c r="C123" s="2">
         <v>3</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
         <v>122</v>
       </c>
       <c r="E123" s="2">
@@ -3336,7 +3510,7 @@
       <c r="C124" s="5">
         <v>3</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124">
         <v>123</v>
       </c>
       <c r="E124" s="5">
@@ -3356,7 +3530,7 @@
       <c r="C125" s="2">
         <v>3</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>124</v>
       </c>
       <c r="E125" s="2">
@@ -3376,7 +3550,7 @@
       <c r="C126" s="5">
         <v>3</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126">
         <v>125</v>
       </c>
       <c r="E126" s="5">
@@ -3396,7 +3570,7 @@
       <c r="C127" s="2">
         <v>3</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
         <v>126</v>
       </c>
       <c r="E127" s="2">
@@ -3416,7 +3590,7 @@
       <c r="C128" s="5">
         <v>3</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128">
         <v>127</v>
       </c>
       <c r="E128" s="5">
@@ -3436,7 +3610,7 @@
       <c r="C129" s="2">
         <v>3</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
         <v>128</v>
       </c>
       <c r="E129" s="2">
@@ -3456,7 +3630,7 @@
       <c r="C130" s="5">
         <v>3</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130">
         <v>129</v>
       </c>
       <c r="E130" s="5">
@@ -3476,7 +3650,7 @@
       <c r="C131" s="2">
         <v>3</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>130</v>
       </c>
       <c r="E131" s="2">
@@ -3496,7 +3670,7 @@
       <c r="C132" s="5">
         <v>3</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132">
         <v>131</v>
       </c>
       <c r="E132" s="5">
@@ -3516,7 +3690,7 @@
       <c r="C133" s="2">
         <v>3</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>132</v>
       </c>
       <c r="E133" s="2">
@@ -3536,7 +3710,7 @@
       <c r="C134" s="5">
         <v>3</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134">
         <v>133</v>
       </c>
       <c r="E134" s="5">
@@ -3556,7 +3730,7 @@
       <c r="C135" s="2">
         <v>3</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>134</v>
       </c>
       <c r="E135" s="2">
@@ -3576,7 +3750,7 @@
       <c r="C136" s="5">
         <v>3</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136">
         <v>135</v>
       </c>
       <c r="E136" s="5">
@@ -3596,7 +3770,7 @@
       <c r="C137" s="2">
         <v>3</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>136</v>
       </c>
       <c r="E137" s="2">
@@ -3616,7 +3790,7 @@
       <c r="C138" s="5">
         <v>3</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138">
         <v>137</v>
       </c>
       <c r="E138" s="5">
@@ -3636,7 +3810,7 @@
       <c r="C139" s="2">
         <v>3</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>138</v>
       </c>
       <c r="E139" s="2">
@@ -3656,7 +3830,7 @@
       <c r="C140" s="5">
         <v>3</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140">
         <v>139</v>
       </c>
       <c r="E140" s="5">
@@ -3676,7 +3850,7 @@
       <c r="C141" s="2">
         <v>3</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
         <v>140</v>
       </c>
       <c r="E141" s="2">
@@ -3696,7 +3870,7 @@
       <c r="C142" s="5">
         <v>3</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142">
         <v>141</v>
       </c>
       <c r="E142" s="5">
@@ -3716,7 +3890,7 @@
       <c r="C143" s="2">
         <v>3</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
         <v>142</v>
       </c>
       <c r="E143" s="2">
@@ -3736,7 +3910,7 @@
       <c r="C144" s="5">
         <v>3</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144">
         <v>143</v>
       </c>
       <c r="E144" s="5">
@@ -3756,7 +3930,7 @@
       <c r="C145" s="2">
         <v>3</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>144</v>
       </c>
       <c r="E145" s="2">
@@ -3776,7 +3950,7 @@
       <c r="C146" s="5">
         <v>3</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146">
         <v>145</v>
       </c>
       <c r="E146" s="5">
@@ -3796,7 +3970,7 @@
       <c r="C147" s="2">
         <v>3</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>146</v>
       </c>
       <c r="E147" s="2">
@@ -3816,7 +3990,7 @@
       <c r="C148" s="5">
         <v>3</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148">
         <v>147</v>
       </c>
       <c r="E148" s="5">
@@ -3836,7 +4010,7 @@
       <c r="C149" s="2">
         <v>3</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149">
         <v>148</v>
       </c>
       <c r="E149" s="2">
@@ -3856,7 +4030,7 @@
       <c r="C150" s="5">
         <v>3</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150">
         <v>149</v>
       </c>
       <c r="E150" s="5">
@@ -3876,7 +4050,7 @@
       <c r="C151" s="2">
         <v>3</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151">
         <v>150</v>
       </c>
       <c r="E151" s="2">
@@ -3896,7 +4070,7 @@
       <c r="C152" s="5">
         <v>3</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152">
         <v>151</v>
       </c>
       <c r="E152" s="5">
@@ -3916,7 +4090,7 @@
       <c r="C153" s="2">
         <v>3</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>152</v>
       </c>
       <c r="E153" s="2">
@@ -3936,7 +4110,7 @@
       <c r="C154" s="5">
         <v>3</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154">
         <v>153</v>
       </c>
       <c r="E154" s="5">
@@ -3956,7 +4130,7 @@
       <c r="C155" s="2">
         <v>3</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>154</v>
       </c>
       <c r="E155" s="2">
@@ -3976,7 +4150,7 @@
       <c r="C156" s="5">
         <v>3</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156">
         <v>155</v>
       </c>
       <c r="E156" s="5">
@@ -3996,7 +4170,7 @@
       <c r="C157" s="2">
         <v>3</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>156</v>
       </c>
       <c r="E157" s="2">
@@ -4016,7 +4190,7 @@
       <c r="C158" s="5">
         <v>3</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158">
         <v>157</v>
       </c>
       <c r="E158" s="5">
@@ -4036,7 +4210,7 @@
       <c r="C159" s="2">
         <v>3</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>158</v>
       </c>
       <c r="E159" s="2">
@@ -4056,7 +4230,7 @@
       <c r="C160" s="5">
         <v>3</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160">
         <v>159</v>
       </c>
       <c r="E160" s="5">
@@ -4076,7 +4250,7 @@
       <c r="C161" s="2">
         <v>3</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161">
         <v>160</v>
       </c>
       <c r="E161" s="2">
@@ -4096,7 +4270,7 @@
       <c r="C162" s="5">
         <v>3</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162">
         <v>161</v>
       </c>
       <c r="E162" s="5">
@@ -4116,7 +4290,7 @@
       <c r="C163" s="2">
         <v>3</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163">
         <v>162</v>
       </c>
       <c r="E163" s="2">
@@ -4136,7 +4310,7 @@
       <c r="C164" s="5">
         <v>3</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164">
         <v>163</v>
       </c>
       <c r="E164" s="5">
@@ -4156,7 +4330,7 @@
       <c r="C165" s="2">
         <v>3</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165">
         <v>164</v>
       </c>
       <c r="E165" s="2">
@@ -4176,7 +4350,7 @@
       <c r="C166" s="5">
         <v>3</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166">
         <v>165</v>
       </c>
       <c r="E166" s="5">
@@ -4196,7 +4370,7 @@
       <c r="C167" s="2">
         <v>3</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167">
         <v>166</v>
       </c>
       <c r="E167" s="2">
@@ -4216,7 +4390,7 @@
       <c r="C168" s="5">
         <v>3</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168">
         <v>167</v>
       </c>
       <c r="E168" s="5">
@@ -4236,7 +4410,7 @@
       <c r="C169" s="2">
         <v>3</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169">
         <v>168</v>
       </c>
       <c r="E169" s="2">
@@ -4256,7 +4430,7 @@
       <c r="C170" s="5">
         <v>3</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170">
         <v>169</v>
       </c>
       <c r="E170" s="5">
@@ -4276,7 +4450,7 @@
       <c r="C171" s="2">
         <v>3</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171">
         <v>170</v>
       </c>
       <c r="E171" s="2">
@@ -4296,7 +4470,7 @@
       <c r="C172" s="5">
         <v>3</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172">
         <v>171</v>
       </c>
       <c r="E172" s="5">
@@ -4316,7 +4490,7 @@
       <c r="C173" s="2">
         <v>3</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173">
         <v>172</v>
       </c>
       <c r="E173" s="2">
@@ -4336,7 +4510,7 @@
       <c r="C174" s="5">
         <v>3</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174">
         <v>173</v>
       </c>
       <c r="E174" s="5">
@@ -4356,7 +4530,7 @@
       <c r="C175" s="2">
         <v>3</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>174</v>
       </c>
       <c r="E175" s="2">
@@ -4376,7 +4550,7 @@
       <c r="C176" s="5">
         <v>3</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176">
         <v>175</v>
       </c>
       <c r="E176" s="5">
@@ -4396,7 +4570,7 @@
       <c r="C177" s="2">
         <v>3</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177">
         <v>176</v>
       </c>
       <c r="E177" s="2">
@@ -4416,7 +4590,7 @@
       <c r="C178" s="5">
         <v>4</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178">
         <v>177</v>
       </c>
       <c r="E178" s="5">
@@ -4436,7 +4610,7 @@
       <c r="C179" s="2">
         <v>4</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179">
         <v>178</v>
       </c>
       <c r="E179" s="2">
@@ -4456,7 +4630,7 @@
       <c r="C180" s="5">
         <v>4</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180">
         <v>179</v>
       </c>
       <c r="E180" s="5">
@@ -4476,7 +4650,7 @@
       <c r="C181" s="2">
         <v>4</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181">
         <v>180</v>
       </c>
       <c r="E181" s="2">
@@ -4496,7 +4670,7 @@
       <c r="C182" s="5">
         <v>4</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182">
         <v>181</v>
       </c>
       <c r="E182" s="5">
@@ -4516,7 +4690,7 @@
       <c r="C183" s="2">
         <v>4</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>182</v>
       </c>
       <c r="E183" s="2">
@@ -4536,7 +4710,7 @@
       <c r="C184" s="5">
         <v>4</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184">
         <v>183</v>
       </c>
       <c r="E184" s="5">
@@ -4556,7 +4730,7 @@
       <c r="C185" s="2">
         <v>4</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185">
         <v>184</v>
       </c>
       <c r="E185" s="2">
@@ -4576,7 +4750,7 @@
       <c r="C186" s="5">
         <v>4</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186">
         <v>185</v>
       </c>
       <c r="E186" s="5">
@@ -4596,7 +4770,7 @@
       <c r="C187" s="2">
         <v>4</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187">
         <v>186</v>
       </c>
       <c r="E187" s="2">
@@ -4616,7 +4790,7 @@
       <c r="C188" s="5">
         <v>4</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188">
         <v>187</v>
       </c>
       <c r="E188" s="5">
@@ -4636,7 +4810,7 @@
       <c r="C189" s="2">
         <v>4</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189">
         <v>188</v>
       </c>
       <c r="E189" s="2">
@@ -4656,7 +4830,7 @@
       <c r="C190" s="5">
         <v>4</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190">
         <v>189</v>
       </c>
       <c r="E190" s="5">
@@ -4676,7 +4850,7 @@
       <c r="C191" s="2">
         <v>4</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191">
         <v>190</v>
       </c>
       <c r="E191" s="2">
@@ -4696,7 +4870,7 @@
       <c r="C192" s="5">
         <v>4</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192">
         <v>191</v>
       </c>
       <c r="E192" s="5">
@@ -4716,7 +4890,7 @@
       <c r="C193" s="2">
         <v>4</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193">
         <v>192</v>
       </c>
       <c r="E193" s="2">
@@ -4736,7 +4910,7 @@
       <c r="C194" s="5">
         <v>4</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194">
         <v>193</v>
       </c>
       <c r="E194" s="5">
@@ -4756,7 +4930,7 @@
       <c r="C195" s="2">
         <v>4</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195">
         <v>194</v>
       </c>
       <c r="E195" s="2">
@@ -4776,7 +4950,7 @@
       <c r="C196" s="5">
         <v>4</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196">
         <v>195</v>
       </c>
       <c r="E196" s="5">
@@ -4796,7 +4970,7 @@
       <c r="C197" s="2">
         <v>4</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197">
         <v>196</v>
       </c>
       <c r="E197" s="2">
@@ -4816,7 +4990,7 @@
       <c r="C198" s="5">
         <v>4</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198">
         <v>197</v>
       </c>
       <c r="E198" s="5">
@@ -4836,7 +5010,7 @@
       <c r="C199" s="2">
         <v>4</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199">
         <v>198</v>
       </c>
       <c r="E199" s="2">
@@ -4856,7 +5030,7 @@
       <c r="C200" s="5">
         <v>4</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200">
         <v>199</v>
       </c>
       <c r="E200" s="5">
@@ -4876,7 +5050,7 @@
       <c r="C201" s="2">
         <v>4</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201">
         <v>200</v>
       </c>
       <c r="E201" s="2">
@@ -4896,7 +5070,7 @@
       <c r="C202" s="5">
         <v>4</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202">
         <v>201</v>
       </c>
       <c r="E202" s="5">
@@ -4916,7 +5090,7 @@
       <c r="C203" s="2">
         <v>4</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203">
         <v>202</v>
       </c>
       <c r="E203" s="2">
@@ -4936,7 +5110,7 @@
       <c r="C204" s="5">
         <v>4</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204">
         <v>203</v>
       </c>
       <c r="E204" s="5">
@@ -4956,7 +5130,7 @@
       <c r="C205" s="2">
         <v>4</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205">
         <v>204</v>
       </c>
       <c r="E205" s="2">
@@ -4976,7 +5150,7 @@
       <c r="C206" s="5">
         <v>4</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206">
         <v>205</v>
       </c>
       <c r="E206" s="5">
@@ -4996,7 +5170,7 @@
       <c r="C207" s="2">
         <v>4</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207">
         <v>206</v>
       </c>
       <c r="E207" s="2">
@@ -5016,7 +5190,7 @@
       <c r="C208" s="5">
         <v>4</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208">
         <v>207</v>
       </c>
       <c r="E208" s="5">
@@ -5036,7 +5210,7 @@
       <c r="C209" s="2">
         <v>4</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209">
         <v>208</v>
       </c>
       <c r="E209" s="2">
@@ -5056,7 +5230,7 @@
       <c r="C210" s="5">
         <v>4</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210">
         <v>209</v>
       </c>
       <c r="E210" s="5">
@@ -5076,7 +5250,7 @@
       <c r="C211" s="2">
         <v>4</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211">
         <v>210</v>
       </c>
       <c r="E211" s="2">
@@ -5096,7 +5270,7 @@
       <c r="C212" s="5">
         <v>4</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212">
         <v>211</v>
       </c>
       <c r="E212" s="5">
@@ -5116,7 +5290,7 @@
       <c r="C213" s="2">
         <v>4</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213">
         <v>212</v>
       </c>
       <c r="E213" s="2">
@@ -5136,7 +5310,7 @@
       <c r="C214" s="5">
         <v>4</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214">
         <v>213</v>
       </c>
       <c r="E214" s="5">
@@ -5156,7 +5330,7 @@
       <c r="C215" s="2">
         <v>4</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215">
         <v>214</v>
       </c>
       <c r="E215" s="2">
@@ -5176,7 +5350,7 @@
       <c r="C216" s="5">
         <v>4</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216">
         <v>215</v>
       </c>
       <c r="E216" s="5">
@@ -5196,7 +5370,7 @@
       <c r="C217" s="2">
         <v>4</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217">
         <v>216</v>
       </c>
       <c r="E217" s="2">
@@ -5216,7 +5390,7 @@
       <c r="C218" s="5">
         <v>4</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218">
         <v>217</v>
       </c>
       <c r="E218" s="5">
@@ -5236,7 +5410,7 @@
       <c r="C219" s="2">
         <v>4</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219">
         <v>218</v>
       </c>
       <c r="E219" s="2">
@@ -5256,7 +5430,7 @@
       <c r="C220" s="5">
         <v>4</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220">
         <v>219</v>
       </c>
       <c r="E220" s="5">
@@ -5276,7 +5450,7 @@
       <c r="C221" s="2">
         <v>4</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221">
         <v>220</v>
       </c>
       <c r="E221" s="2">
@@ -5296,7 +5470,7 @@
       <c r="C222" s="5">
         <v>4</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222">
         <v>221</v>
       </c>
       <c r="E222" s="5">
@@ -5316,7 +5490,7 @@
       <c r="C223" s="2">
         <v>4</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223">
         <v>222</v>
       </c>
       <c r="E223" s="2">
@@ -5336,7 +5510,7 @@
       <c r="C224" s="5">
         <v>4</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224">
         <v>223</v>
       </c>
       <c r="E224" s="5">
@@ -5356,7 +5530,7 @@
       <c r="C225" s="2">
         <v>4</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225">
         <v>224</v>
       </c>
       <c r="E225" s="2">
@@ -5376,7 +5550,7 @@
       <c r="C226" s="5">
         <v>4</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226">
         <v>225</v>
       </c>
       <c r="E226" s="5">
@@ -5396,7 +5570,7 @@
       <c r="C227" s="2">
         <v>4</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227">
         <v>226</v>
       </c>
       <c r="E227" s="2">
@@ -5416,7 +5590,7 @@
       <c r="C228" s="5">
         <v>4</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228">
         <v>227</v>
       </c>
       <c r="E228" s="5">
@@ -5436,7 +5610,7 @@
       <c r="C229" s="2">
         <v>4</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229">
         <v>228</v>
       </c>
       <c r="E229" s="2">
@@ -5456,7 +5630,7 @@
       <c r="C230" s="5">
         <v>4</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230">
         <v>229</v>
       </c>
       <c r="E230" s="5">
@@ -5476,7 +5650,7 @@
       <c r="C231" s="2">
         <v>4</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231">
         <v>230</v>
       </c>
       <c r="E231" s="2">
@@ -5496,7 +5670,7 @@
       <c r="C232" s="5">
         <v>4</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232">
         <v>231</v>
       </c>
       <c r="E232" s="5">
@@ -5516,7 +5690,7 @@
       <c r="C233" s="2">
         <v>4</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233">
         <v>232</v>
       </c>
       <c r="E233" s="2">
@@ -5536,7 +5710,7 @@
       <c r="C234" s="5">
         <v>4</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234">
         <v>233</v>
       </c>
       <c r="E234" s="5">
@@ -5556,7 +5730,7 @@
       <c r="C235" s="2">
         <v>4</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235">
         <v>234</v>
       </c>
       <c r="E235" s="2">
@@ -5576,7 +5750,7 @@
       <c r="C236" s="5">
         <v>4</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236">
         <v>235</v>
       </c>
       <c r="E236" s="5">
@@ -5596,7 +5770,7 @@
       <c r="C237" s="2">
         <v>4</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237">
         <v>236</v>
       </c>
       <c r="E237" s="2">
@@ -5616,7 +5790,7 @@
       <c r="C238" s="5">
         <v>4</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238">
         <v>237</v>
       </c>
       <c r="E238" s="5">
@@ -5636,7 +5810,7 @@
       <c r="C239" s="2">
         <v>4</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239">
         <v>238</v>
       </c>
       <c r="E239" s="2">
@@ -5656,7 +5830,7 @@
       <c r="C240" s="5">
         <v>4</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240">
         <v>239</v>
       </c>
       <c r="E240" s="5">
@@ -5676,7 +5850,7 @@
       <c r="C241" s="2">
         <v>4</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241">
         <v>240</v>
       </c>
       <c r="E241" s="2">
@@ -5696,7 +5870,7 @@
       <c r="C242" s="5">
         <v>4</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242">
         <v>241</v>
       </c>
       <c r="E242" s="5">
@@ -5716,7 +5890,7 @@
       <c r="C243" s="2">
         <v>4</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243">
         <v>242</v>
       </c>
       <c r="E243" s="2">
@@ -5736,18 +5910,4019 @@
       <c r="C244" s="8">
         <v>4</v>
       </c>
-      <c r="D244" s="8">
+      <c r="D244">
         <v>243</v>
       </c>
       <c r="E244" s="8">
         <v>0</v>
       </c>
       <c r="F244" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>244</v>
+      </c>
+      <c r="E245">
+        <v>11</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>39</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+      <c r="D246">
+        <v>245</v>
+      </c>
+      <c r="E246">
+        <v>14</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+      <c r="D247">
+        <v>246</v>
+      </c>
+      <c r="E247">
+        <v>18</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>73</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+      <c r="D248">
+        <v>247</v>
+      </c>
+      <c r="E248">
+        <v>10</v>
+      </c>
+      <c r="F248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+      <c r="D249">
+        <v>248</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+      <c r="D250">
+        <v>249</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+      <c r="D251">
+        <v>250</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>251</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>61</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+      <c r="D253">
+        <v>252</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>114</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254">
+        <v>253</v>
+      </c>
+      <c r="E254">
+        <v>7</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>115</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>254</v>
+      </c>
+      <c r="E255">
+        <v>7</v>
+      </c>
+      <c r="F255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>255</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>95</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257">
+        <v>256</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>116</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>257</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>97</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+      <c r="D259">
+        <v>258</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>74</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <v>259</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>117</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+      <c r="D261">
+        <v>260</v>
+      </c>
+      <c r="E261">
+        <v>6</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+      <c r="D262">
+        <v>261</v>
+      </c>
+      <c r="E262">
+        <v>11</v>
+      </c>
+      <c r="F262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>100</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>262</v>
+      </c>
+      <c r="E263">
+        <v>11</v>
+      </c>
+      <c r="F263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>25</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>263</v>
+      </c>
+      <c r="E264">
+        <v>11</v>
+      </c>
+      <c r="F264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>80</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+      <c r="D265">
+        <v>264</v>
+      </c>
+      <c r="E265">
+        <v>6</v>
+      </c>
+      <c r="F265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>118</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <v>265</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>36</v>
+      </c>
+      <c r="B267">
+        <v>6</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267">
+        <v>266</v>
+      </c>
+      <c r="E267">
+        <v>16</v>
+      </c>
+      <c r="F267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>34</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268">
+        <v>267</v>
+      </c>
+      <c r="E268">
+        <v>9</v>
+      </c>
+      <c r="F268">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>64</v>
+      </c>
+      <c r="B269">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>268</v>
+      </c>
+      <c r="E269">
+        <v>14</v>
+      </c>
+      <c r="F269">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>98</v>
+      </c>
+      <c r="B270">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+      <c r="D270">
+        <v>269</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>119</v>
+      </c>
+      <c r="B271">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271">
+        <v>270</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272">
+        <v>7</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272">
+        <v>271</v>
+      </c>
+      <c r="E272">
+        <v>16</v>
+      </c>
+      <c r="F272">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>69</v>
+      </c>
+      <c r="B273">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>5</v>
+      </c>
+      <c r="D273">
+        <v>272</v>
+      </c>
+      <c r="E273">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>37</v>
+      </c>
+      <c r="B274">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274">
+        <v>273</v>
+      </c>
+      <c r="E274">
+        <v>16</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>77</v>
+      </c>
+      <c r="B275">
+        <v>7</v>
+      </c>
+      <c r="C275">
+        <v>5</v>
+      </c>
+      <c r="D275">
+        <v>274</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>120</v>
+      </c>
+      <c r="B276">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+      <c r="D276">
+        <v>275</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>105</v>
+      </c>
+      <c r="B277">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+      <c r="D277">
+        <v>276</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>51</v>
+      </c>
+      <c r="B278">
+        <v>8</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+      <c r="D278">
+        <v>277</v>
+      </c>
+      <c r="E278">
+        <v>17</v>
+      </c>
+      <c r="F278">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>121</v>
+      </c>
+      <c r="B279">
+        <v>8</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+      <c r="D279">
+        <v>278</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>43</v>
+      </c>
+      <c r="B280">
+        <v>8</v>
+      </c>
+      <c r="C280">
+        <v>5</v>
+      </c>
+      <c r="D280">
+        <v>279</v>
+      </c>
+      <c r="E280">
+        <v>11</v>
+      </c>
+      <c r="F280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>45</v>
+      </c>
+      <c r="B281">
+        <v>8</v>
+      </c>
+      <c r="C281">
+        <v>5</v>
+      </c>
+      <c r="D281">
+        <v>280</v>
+      </c>
+      <c r="E281">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>50</v>
+      </c>
+      <c r="B282">
+        <v>8</v>
+      </c>
+      <c r="C282">
+        <v>5</v>
+      </c>
+      <c r="D282">
+        <v>281</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>63</v>
+      </c>
+      <c r="B283">
+        <v>10</v>
+      </c>
+      <c r="C283">
+        <v>5</v>
+      </c>
+      <c r="D283">
+        <v>282</v>
+      </c>
+      <c r="E283">
+        <v>28</v>
+      </c>
+      <c r="F283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>47</v>
+      </c>
+      <c r="B284">
+        <v>10</v>
+      </c>
+      <c r="C284">
+        <v>5</v>
+      </c>
+      <c r="D284">
+        <v>283</v>
+      </c>
+      <c r="E284">
+        <v>13</v>
+      </c>
+      <c r="F284">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>50</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>5</v>
+      </c>
+      <c r="D285">
+        <v>284</v>
+      </c>
+      <c r="E285">
+        <v>3</v>
+      </c>
+      <c r="F285">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>62</v>
+      </c>
+      <c r="B286">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>5</v>
+      </c>
+      <c r="D286">
+        <v>285</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>55</v>
+      </c>
+      <c r="B287">
+        <v>10</v>
+      </c>
+      <c r="C287">
+        <v>5</v>
+      </c>
+      <c r="D287">
+        <v>286</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>122</v>
+      </c>
+      <c r="B288">
+        <v>12</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>287</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>123</v>
+      </c>
+      <c r="B289">
+        <v>12</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+      <c r="D289">
+        <v>288</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>124</v>
+      </c>
+      <c r="B290">
+        <v>12</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+      <c r="D290">
+        <v>289</v>
+      </c>
+      <c r="E290">
+        <v>5</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>26</v>
+      </c>
+      <c r="B291">
+        <v>12</v>
+      </c>
+      <c r="C291">
+        <v>5</v>
+      </c>
+      <c r="D291">
+        <v>290</v>
+      </c>
+      <c r="E291">
+        <v>17</v>
+      </c>
+      <c r="F291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>92</v>
+      </c>
+      <c r="B292">
+        <v>12</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292">
+        <v>291</v>
+      </c>
+      <c r="E292">
+        <v>9</v>
+      </c>
+      <c r="F292">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>91</v>
+      </c>
+      <c r="B293">
+        <v>12</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
+        <v>292</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>125</v>
+      </c>
+      <c r="B294">
+        <v>12</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>293</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295">
+        <v>294</v>
+      </c>
+      <c r="E295">
+        <v>21</v>
+      </c>
+      <c r="F295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+      <c r="D296">
+        <v>295</v>
+      </c>
+      <c r="E296">
+        <v>9</v>
+      </c>
+      <c r="F296">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>66</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>5</v>
+      </c>
+      <c r="D297">
+        <v>296</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>126</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298">
+        <v>297</v>
+      </c>
+      <c r="E298">
+        <v>10</v>
+      </c>
+      <c r="F298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299">
+        <v>9</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>298</v>
+      </c>
+      <c r="E299">
+        <v>6</v>
+      </c>
+      <c r="F299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>107</v>
+      </c>
+      <c r="B300">
+        <v>9</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+      <c r="D300">
+        <v>299</v>
+      </c>
+      <c r="E300">
+        <v>17</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>81</v>
+      </c>
+      <c r="B301">
+        <v>9</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+      <c r="D301">
+        <v>300</v>
+      </c>
+      <c r="E301">
+        <v>8</v>
+      </c>
+      <c r="F301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>127</v>
+      </c>
+      <c r="B302">
+        <v>9</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+      <c r="D302">
+        <v>301</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>94</v>
+      </c>
+      <c r="B303">
+        <v>9</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>302</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>90</v>
+      </c>
+      <c r="B304">
+        <v>9</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304">
+        <v>303</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>128</v>
+      </c>
+      <c r="B305">
+        <v>9</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+      <c r="D305">
+        <v>304</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>86</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <v>305</v>
+      </c>
+      <c r="E306">
+        <v>5</v>
+      </c>
+      <c r="F306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>129</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+      <c r="D307">
+        <v>306</v>
+      </c>
+      <c r="E307">
+        <v>4</v>
+      </c>
+      <c r="F307">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>28</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>307</v>
+      </c>
+      <c r="E308">
+        <v>6</v>
+      </c>
+      <c r="F308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>99</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+      <c r="D309">
+        <v>308</v>
+      </c>
+      <c r="E309">
+        <v>5</v>
+      </c>
+      <c r="F309">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>5</v>
+      </c>
+      <c r="D310">
+        <v>309</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>130</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311">
+        <v>310</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>131</v>
+      </c>
+      <c r="B312">
+        <v>14</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+      <c r="D312">
+        <v>311</v>
+      </c>
+      <c r="E312">
+        <v>21</v>
+      </c>
+      <c r="F312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>132</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>312</v>
+      </c>
+      <c r="E313">
+        <v>7</v>
+      </c>
+      <c r="F313">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>133</v>
+      </c>
+      <c r="B314">
+        <v>14</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>313</v>
+      </c>
+      <c r="E314">
+        <v>5</v>
+      </c>
+      <c r="F314">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>116</v>
+      </c>
+      <c r="B315">
+        <v>14</v>
+      </c>
+      <c r="C315">
+        <v>5</v>
+      </c>
+      <c r="D315">
+        <v>314</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>134</v>
+      </c>
+      <c r="B316">
+        <v>14</v>
+      </c>
+      <c r="C316">
+        <v>5</v>
+      </c>
+      <c r="D316">
+        <v>315</v>
+      </c>
+      <c r="E316">
+        <v>2</v>
+      </c>
+      <c r="F316">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>18</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>316</v>
+      </c>
+      <c r="E317">
+        <v>14</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>317</v>
+      </c>
+      <c r="E318">
+        <v>11</v>
+      </c>
+      <c r="F318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>131</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>318</v>
+      </c>
+      <c r="E319">
+        <v>14</v>
+      </c>
+      <c r="F319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>135</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>319</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>110</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>6</v>
+      </c>
+      <c r="D321">
+        <v>320</v>
+      </c>
+      <c r="E321">
+        <v>5</v>
+      </c>
+      <c r="F321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>114</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>321</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>39</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>6</v>
+      </c>
+      <c r="D323">
+        <v>322</v>
+      </c>
+      <c r="E323">
+        <v>7</v>
+      </c>
+      <c r="F323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>323</v>
+      </c>
+      <c r="E324">
+        <v>11</v>
+      </c>
+      <c r="F324">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>6</v>
+      </c>
+      <c r="D325">
+        <v>324</v>
+      </c>
+      <c r="E325">
+        <v>16</v>
+      </c>
+      <c r="F325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>73</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>325</v>
+      </c>
+      <c r="E326">
+        <v>9</v>
+      </c>
+      <c r="F326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>326</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>136</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>327</v>
+      </c>
+      <c r="E328">
+        <v>3</v>
+      </c>
+      <c r="F328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>137</v>
+      </c>
+      <c r="B329">
+        <v>8</v>
+      </c>
+      <c r="C329">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>328</v>
+      </c>
+      <c r="E329">
+        <v>7</v>
+      </c>
+      <c r="F329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>51</v>
+      </c>
+      <c r="B330">
+        <v>8</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>329</v>
+      </c>
+      <c r="E330">
+        <v>18</v>
+      </c>
+      <c r="F330">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>45</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>330</v>
+      </c>
+      <c r="E331">
+        <v>7</v>
+      </c>
+      <c r="F331">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>57</v>
+      </c>
+      <c r="B332">
+        <v>8</v>
+      </c>
+      <c r="C332">
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>331</v>
+      </c>
+      <c r="E332">
+        <v>3</v>
+      </c>
+      <c r="F332">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>63</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>332</v>
+      </c>
+      <c r="E333">
+        <v>20</v>
+      </c>
+      <c r="F333">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>47</v>
+      </c>
+      <c r="B334">
+        <v>10</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>333</v>
+      </c>
+      <c r="E334">
+        <v>10</v>
+      </c>
+      <c r="F334">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>50</v>
+      </c>
+      <c r="B335">
+        <v>10</v>
+      </c>
+      <c r="C335">
+        <v>6</v>
+      </c>
+      <c r="D335">
+        <v>334</v>
+      </c>
+      <c r="E335">
+        <v>7</v>
+      </c>
+      <c r="F335">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>62</v>
+      </c>
+      <c r="B336">
+        <v>10</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>335</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>36</v>
+      </c>
+      <c r="B337">
+        <v>6</v>
+      </c>
+      <c r="C337">
+        <v>6</v>
+      </c>
+      <c r="D337">
+        <v>336</v>
+      </c>
+      <c r="E337">
+        <v>13</v>
+      </c>
+      <c r="F337">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>34</v>
+      </c>
+      <c r="B338">
+        <v>6</v>
+      </c>
+      <c r="C338">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <v>337</v>
+      </c>
+      <c r="E338">
+        <v>11</v>
+      </c>
+      <c r="F338">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>64</v>
+      </c>
+      <c r="B339">
+        <v>6</v>
+      </c>
+      <c r="C339">
+        <v>6</v>
+      </c>
+      <c r="D339">
+        <v>338</v>
+      </c>
+      <c r="E339">
+        <v>6</v>
+      </c>
+      <c r="F339">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>98</v>
+      </c>
+      <c r="B340">
+        <v>6</v>
+      </c>
+      <c r="C340">
+        <v>6</v>
+      </c>
+      <c r="D340">
+        <v>339</v>
+      </c>
+      <c r="E340">
+        <v>4</v>
+      </c>
+      <c r="F340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>138</v>
+      </c>
+      <c r="B341">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>6</v>
+      </c>
+      <c r="D341">
+        <v>340</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>100</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>6</v>
+      </c>
+      <c r="D342">
+        <v>341</v>
+      </c>
+      <c r="E342">
+        <v>6</v>
+      </c>
+      <c r="F342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>6</v>
+      </c>
+      <c r="D343">
+        <v>342</v>
+      </c>
+      <c r="E343">
+        <v>9</v>
+      </c>
+      <c r="F343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>8</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>6</v>
+      </c>
+      <c r="D344">
+        <v>343</v>
+      </c>
+      <c r="E344">
+        <v>14</v>
+      </c>
+      <c r="F344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>6</v>
+      </c>
+      <c r="D345">
+        <v>344</v>
+      </c>
+      <c r="E345">
+        <v>6</v>
+      </c>
+      <c r="F345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>80</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>345</v>
+      </c>
+      <c r="E346">
+        <v>3</v>
+      </c>
+      <c r="F346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>139</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>346</v>
+      </c>
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>74</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>347</v>
+      </c>
+      <c r="E348">
+        <v>4</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>23</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>348</v>
+      </c>
+      <c r="E349">
+        <v>15</v>
+      </c>
+      <c r="F349">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>126</v>
+      </c>
+      <c r="B350">
+        <v>4</v>
+      </c>
+      <c r="C350">
+        <v>6</v>
+      </c>
+      <c r="D350">
+        <v>349</v>
+      </c>
+      <c r="E350">
+        <v>12</v>
+      </c>
+      <c r="F350">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>140</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+      <c r="C351">
+        <v>6</v>
+      </c>
+      <c r="D351">
+        <v>350</v>
+      </c>
+      <c r="E351">
+        <v>5</v>
+      </c>
+      <c r="F351">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>141</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>6</v>
+      </c>
+      <c r="D352">
+        <v>351</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>142</v>
+      </c>
+      <c r="B353">
+        <v>4</v>
+      </c>
+      <c r="C353">
+        <v>6</v>
+      </c>
+      <c r="D353">
+        <v>352</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>37</v>
+      </c>
+      <c r="B354">
+        <v>7</v>
+      </c>
+      <c r="C354">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>353</v>
+      </c>
+      <c r="E354">
+        <v>15</v>
+      </c>
+      <c r="F354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>27</v>
+      </c>
+      <c r="B355">
+        <v>7</v>
+      </c>
+      <c r="C355">
+        <v>6</v>
+      </c>
+      <c r="D355">
+        <v>354</v>
+      </c>
+      <c r="E355">
+        <v>2</v>
+      </c>
+      <c r="F355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>69</v>
+      </c>
+      <c r="B356">
+        <v>7</v>
+      </c>
+      <c r="C356">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>355</v>
+      </c>
+      <c r="E356">
+        <v>15</v>
+      </c>
+      <c r="F356">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>77</v>
+      </c>
+      <c r="B357">
+        <v>7</v>
+      </c>
+      <c r="C357">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>356</v>
+      </c>
+      <c r="E357">
+        <v>3</v>
+      </c>
+      <c r="F357">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>143</v>
+      </c>
+      <c r="B358">
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>357</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>144</v>
+      </c>
+      <c r="B359">
+        <v>7</v>
+      </c>
+      <c r="C359">
+        <v>6</v>
+      </c>
+      <c r="D359">
+        <v>358</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>107</v>
+      </c>
+      <c r="B360">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>359</v>
+      </c>
+      <c r="E360">
+        <v>20</v>
+      </c>
+      <c r="F360">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>106</v>
+      </c>
+      <c r="B361">
+        <v>9</v>
+      </c>
+      <c r="C361">
+        <v>6</v>
+      </c>
+      <c r="D361">
+        <v>360</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>81</v>
+      </c>
+      <c r="B362">
+        <v>9</v>
+      </c>
+      <c r="C362">
+        <v>6</v>
+      </c>
+      <c r="D362">
+        <v>361</v>
+      </c>
+      <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>127</v>
+      </c>
+      <c r="B363">
+        <v>9</v>
+      </c>
+      <c r="C363">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>362</v>
+      </c>
+      <c r="E363">
+        <v>4</v>
+      </c>
+      <c r="F363">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>145</v>
+      </c>
+      <c r="B364">
+        <v>9</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>363</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>146</v>
+      </c>
+      <c r="B365">
+        <v>5</v>
+      </c>
+      <c r="C365">
+        <v>6</v>
+      </c>
+      <c r="D365">
+        <v>364</v>
+      </c>
+      <c r="E365">
+        <v>3</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>28</v>
+      </c>
+      <c r="B366">
+        <v>5</v>
+      </c>
+      <c r="C366">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>365</v>
+      </c>
+      <c r="E366">
+        <v>14</v>
+      </c>
+      <c r="F366">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>129</v>
+      </c>
+      <c r="B367">
+        <v>5</v>
+      </c>
+      <c r="C367">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>366</v>
+      </c>
+      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="F367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>367</v>
+      </c>
+      <c r="E368">
+        <v>12</v>
+      </c>
+      <c r="F368">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>130</v>
+      </c>
+      <c r="B369">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>6</v>
+      </c>
+      <c r="D369">
+        <v>368</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>147</v>
+      </c>
+      <c r="B370">
+        <v>5</v>
+      </c>
+      <c r="C370">
+        <v>6</v>
+      </c>
+      <c r="D370">
+        <v>369</v>
+      </c>
+      <c r="E370">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>148</v>
+      </c>
+      <c r="B371">
+        <v>14</v>
+      </c>
+      <c r="C371">
+        <v>6</v>
+      </c>
+      <c r="D371">
+        <v>370</v>
+      </c>
+      <c r="E371">
+        <v>14</v>
+      </c>
+      <c r="F371">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>93</v>
+      </c>
+      <c r="B372">
+        <v>14</v>
+      </c>
+      <c r="C372">
+        <v>6</v>
+      </c>
+      <c r="D372">
+        <v>371</v>
+      </c>
+      <c r="E372">
+        <v>3</v>
+      </c>
+      <c r="F372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>133</v>
+      </c>
+      <c r="B373">
+        <v>14</v>
+      </c>
+      <c r="C373">
+        <v>6</v>
+      </c>
+      <c r="D373">
+        <v>372</v>
+      </c>
+      <c r="E373">
+        <v>6</v>
+      </c>
+      <c r="F373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>134</v>
+      </c>
+      <c r="B374">
+        <v>14</v>
+      </c>
+      <c r="C374">
+        <v>6</v>
+      </c>
+      <c r="D374">
+        <v>373</v>
+      </c>
+      <c r="E374">
+        <v>2</v>
+      </c>
+      <c r="F374">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>149</v>
+      </c>
+      <c r="B375">
+        <v>14</v>
+      </c>
+      <c r="C375">
+        <v>6</v>
+      </c>
+      <c r="D375">
+        <v>374</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>150</v>
+      </c>
+      <c r="B376">
+        <v>14</v>
+      </c>
+      <c r="C376">
+        <v>6</v>
+      </c>
+      <c r="D376">
+        <v>375</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>39</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377">
+        <v>7</v>
+      </c>
+      <c r="D377">
+        <v>376</v>
+      </c>
+      <c r="E377">
+        <v>13</v>
+      </c>
+      <c r="F377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>7</v>
+      </c>
+      <c r="D378">
+        <v>377</v>
+      </c>
+      <c r="E378">
+        <v>18</v>
+      </c>
+      <c r="F378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>7</v>
+      </c>
+      <c r="D379">
+        <v>378</v>
+      </c>
+      <c r="E379">
+        <v>12</v>
+      </c>
+      <c r="F379">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>73</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>7</v>
+      </c>
+      <c r="D380">
+        <v>379</v>
+      </c>
+      <c r="E380">
+        <v>4</v>
+      </c>
+      <c r="F380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>136</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>7</v>
+      </c>
+      <c r="D381">
+        <v>380</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>7</v>
+      </c>
+      <c r="D382">
+        <v>381</v>
+      </c>
+      <c r="E382">
+        <v>17</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>117</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>7</v>
+      </c>
+      <c r="D383">
+        <v>382</v>
+      </c>
+      <c r="E383">
+        <v>18</v>
+      </c>
+      <c r="F383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>7</v>
+      </c>
+      <c r="D384">
+        <v>383</v>
+      </c>
+      <c r="E384">
+        <v>17</v>
+      </c>
+      <c r="F384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>151</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>7</v>
+      </c>
+      <c r="D385">
+        <v>384</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>152</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386">
+        <v>385</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>153</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>7</v>
+      </c>
+      <c r="D387">
+        <v>386</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>7</v>
+      </c>
+      <c r="D388">
+        <v>387</v>
+      </c>
+      <c r="E388">
+        <v>11</v>
+      </c>
+      <c r="F388">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>17</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389">
+        <v>388</v>
+      </c>
+      <c r="E389">
+        <v>16</v>
+      </c>
+      <c r="F389">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>131</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390">
+        <v>7</v>
+      </c>
+      <c r="D390">
+        <v>389</v>
+      </c>
+      <c r="E390">
+        <v>5</v>
+      </c>
+      <c r="F390">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>135</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391">
+        <v>7</v>
+      </c>
+      <c r="D391">
+        <v>390</v>
+      </c>
+      <c r="E391">
+        <v>12</v>
+      </c>
+      <c r="F391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>110</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+      <c r="C392">
+        <v>7</v>
+      </c>
+      <c r="D392">
+        <v>391</v>
+      </c>
+      <c r="E392">
+        <v>3</v>
+      </c>
+      <c r="F392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>154</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393">
+        <v>7</v>
+      </c>
+      <c r="D393">
+        <v>392</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>137</v>
+      </c>
+      <c r="B394">
+        <v>8</v>
+      </c>
+      <c r="C394">
+        <v>7</v>
+      </c>
+      <c r="D394">
+        <v>393</v>
+      </c>
+      <c r="E394">
+        <v>20</v>
+      </c>
+      <c r="F394">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>51</v>
+      </c>
+      <c r="B395">
+        <v>8</v>
+      </c>
+      <c r="C395">
+        <v>7</v>
+      </c>
+      <c r="D395">
+        <v>394</v>
+      </c>
+      <c r="E395">
+        <v>12</v>
+      </c>
+      <c r="F395">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>45</v>
+      </c>
+      <c r="B396">
+        <v>8</v>
+      </c>
+      <c r="C396">
+        <v>7</v>
+      </c>
+      <c r="D396">
+        <v>395</v>
+      </c>
+      <c r="E396">
+        <v>8</v>
+      </c>
+      <c r="F396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>57</v>
+      </c>
+      <c r="B397">
+        <v>8</v>
+      </c>
+      <c r="C397">
+        <v>7</v>
+      </c>
+      <c r="D397">
+        <v>396</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>122</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>7</v>
+      </c>
+      <c r="D398">
+        <v>397</v>
+      </c>
+      <c r="E398">
+        <v>22</v>
+      </c>
+      <c r="F398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>155</v>
+      </c>
+      <c r="B399">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+      <c r="D399">
+        <v>398</v>
+      </c>
+      <c r="E399">
+        <v>9</v>
+      </c>
+      <c r="F399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>146</v>
+      </c>
+      <c r="B400">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <v>7</v>
+      </c>
+      <c r="D400">
+        <v>399</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+      <c r="B401">
+        <v>5</v>
+      </c>
+      <c r="C401">
+        <v>7</v>
+      </c>
+      <c r="D401">
+        <v>400</v>
+      </c>
+      <c r="E401">
+        <v>7</v>
+      </c>
+      <c r="F401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>30</v>
+      </c>
+      <c r="B402">
+        <v>5</v>
+      </c>
+      <c r="C402">
+        <v>7</v>
+      </c>
+      <c r="D402">
+        <v>401</v>
+      </c>
+      <c r="E402">
+        <v>8</v>
+      </c>
+      <c r="F402">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>156</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+      <c r="D403">
+        <v>402</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>130</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+      <c r="D404">
+        <v>403</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>157</v>
+      </c>
+      <c r="B405">
+        <v>5</v>
+      </c>
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405">
+        <v>404</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>63</v>
+      </c>
+      <c r="B406">
+        <v>10</v>
+      </c>
+      <c r="C406">
+        <v>7</v>
+      </c>
+      <c r="D406">
+        <v>405</v>
+      </c>
+      <c r="E406">
+        <v>17</v>
+      </c>
+      <c r="F406">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>47</v>
+      </c>
+      <c r="B407">
+        <v>10</v>
+      </c>
+      <c r="C407">
+        <v>7</v>
+      </c>
+      <c r="D407">
+        <v>406</v>
+      </c>
+      <c r="E407">
+        <v>22</v>
+      </c>
+      <c r="F407">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>132</v>
+      </c>
+      <c r="B408">
+        <v>10</v>
+      </c>
+      <c r="C408">
+        <v>7</v>
+      </c>
+      <c r="D408">
+        <v>407</v>
+      </c>
+      <c r="E408">
+        <v>7</v>
+      </c>
+      <c r="F408">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>50</v>
+      </c>
+      <c r="B409">
+        <v>10</v>
+      </c>
+      <c r="C409">
+        <v>7</v>
+      </c>
+      <c r="D409">
+        <v>408</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>37</v>
+      </c>
+      <c r="B410">
+        <v>7</v>
+      </c>
+      <c r="C410">
+        <v>7</v>
+      </c>
+      <c r="D410">
+        <v>409</v>
+      </c>
+      <c r="E410">
+        <v>9</v>
+      </c>
+      <c r="F410">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>69</v>
+      </c>
+      <c r="B411">
+        <v>7</v>
+      </c>
+      <c r="C411">
+        <v>7</v>
+      </c>
+      <c r="D411">
+        <v>410</v>
+      </c>
+      <c r="E411">
+        <v>12</v>
+      </c>
+      <c r="F411">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>158</v>
+      </c>
+      <c r="B412">
+        <v>7</v>
+      </c>
+      <c r="C412">
+        <v>7</v>
+      </c>
+      <c r="D412">
+        <v>411</v>
+      </c>
+      <c r="E412">
+        <v>2</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>159</v>
+      </c>
+      <c r="B413">
+        <v>7</v>
+      </c>
+      <c r="C413">
+        <v>7</v>
+      </c>
+      <c r="D413">
+        <v>412</v>
+      </c>
+      <c r="E413">
+        <v>2</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>160</v>
+      </c>
+      <c r="B414">
+        <v>7</v>
+      </c>
+      <c r="C414">
+        <v>7</v>
+      </c>
+      <c r="D414">
+        <v>413</v>
+      </c>
+      <c r="E414">
+        <v>6</v>
+      </c>
+      <c r="F414">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>161</v>
+      </c>
+      <c r="B415">
+        <v>7</v>
+      </c>
+      <c r="C415">
+        <v>7</v>
+      </c>
+      <c r="D415">
+        <v>414</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>143</v>
+      </c>
+      <c r="B416">
+        <v>7</v>
+      </c>
+      <c r="C416">
+        <v>7</v>
+      </c>
+      <c r="D416">
+        <v>415</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>162</v>
+      </c>
+      <c r="B417">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <v>7</v>
+      </c>
+      <c r="D417">
+        <v>416</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>163</v>
+      </c>
+      <c r="B418">
+        <v>7</v>
+      </c>
+      <c r="C418">
+        <v>7</v>
+      </c>
+      <c r="D418">
+        <v>417</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>74</v>
+      </c>
+      <c r="B419">
+        <v>4</v>
+      </c>
+      <c r="C419">
+        <v>7</v>
+      </c>
+      <c r="D419">
+        <v>418</v>
+      </c>
+      <c r="E419">
+        <v>16</v>
+      </c>
+      <c r="F419">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>23</v>
+      </c>
+      <c r="B420">
+        <v>4</v>
+      </c>
+      <c r="C420">
+        <v>7</v>
+      </c>
+      <c r="D420">
+        <v>419</v>
+      </c>
+      <c r="E420">
+        <v>15</v>
+      </c>
+      <c r="F420">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>140</v>
+      </c>
+      <c r="B421">
+        <v>4</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+      <c r="D421">
+        <v>420</v>
+      </c>
+      <c r="E421">
+        <v>10</v>
+      </c>
+      <c r="F421">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>126</v>
+      </c>
+      <c r="B422">
+        <v>4</v>
+      </c>
+      <c r="C422">
+        <v>7</v>
+      </c>
+      <c r="D422">
+        <v>421</v>
+      </c>
+      <c r="E422">
+        <v>4</v>
+      </c>
+      <c r="F422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>49</v>
+      </c>
+      <c r="B423">
+        <v>15</v>
+      </c>
+      <c r="C423">
+        <v>7</v>
+      </c>
+      <c r="D423">
+        <v>422</v>
+      </c>
+      <c r="E423">
+        <v>11</v>
+      </c>
+      <c r="F423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>148</v>
+      </c>
+      <c r="B424">
+        <v>15</v>
+      </c>
+      <c r="C424">
+        <v>7</v>
+      </c>
+      <c r="D424">
+        <v>423</v>
+      </c>
+      <c r="E424">
+        <v>16</v>
+      </c>
+      <c r="F424">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>114</v>
+      </c>
+      <c r="B425">
+        <v>15</v>
+      </c>
+      <c r="C425">
+        <v>7</v>
+      </c>
+      <c r="D425">
+        <v>424</v>
+      </c>
+      <c r="E425">
+        <v>9</v>
+      </c>
+      <c r="F425">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>96</v>
+      </c>
+      <c r="B426">
+        <v>15</v>
+      </c>
+      <c r="C426">
+        <v>7</v>
+      </c>
+      <c r="D426">
+        <v>425</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>58</v>
+      </c>
+      <c r="B427">
+        <v>15</v>
+      </c>
+      <c r="C427">
+        <v>7</v>
+      </c>
+      <c r="D427">
+        <v>426</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>164</v>
+      </c>
+      <c r="B428">
+        <v>15</v>
+      </c>
+      <c r="C428">
+        <v>7</v>
+      </c>
+      <c r="D428">
+        <v>427</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>165</v>
+      </c>
+      <c r="B429">
+        <v>15</v>
+      </c>
+      <c r="C429">
+        <v>7</v>
+      </c>
+      <c r="D429">
+        <v>428</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>36</v>
+      </c>
+      <c r="B430">
+        <v>6</v>
+      </c>
+      <c r="C430">
+        <v>7</v>
+      </c>
+      <c r="D430">
+        <v>429</v>
+      </c>
+      <c r="E430">
+        <v>15</v>
+      </c>
+      <c r="F430">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>34</v>
+      </c>
+      <c r="B431">
+        <v>6</v>
+      </c>
+      <c r="C431">
+        <v>7</v>
+      </c>
+      <c r="D431">
+        <v>430</v>
+      </c>
+      <c r="E431">
+        <v>8</v>
+      </c>
+      <c r="F431">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>64</v>
+      </c>
+      <c r="B432">
+        <v>6</v>
+      </c>
+      <c r="C432">
+        <v>7</v>
+      </c>
+      <c r="D432">
+        <v>431</v>
+      </c>
+      <c r="E432">
+        <v>4</v>
+      </c>
+      <c r="F432">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>98</v>
+      </c>
+      <c r="B433">
+        <v>6</v>
+      </c>
+      <c r="C433">
+        <v>7</v>
+      </c>
+      <c r="D433">
+        <v>432</v>
+      </c>
+      <c r="E433">
+        <v>5</v>
+      </c>
+      <c r="F433">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>13</v>
+      </c>
+      <c r="B434">
+        <v>13</v>
+      </c>
+      <c r="C434">
+        <v>7</v>
+      </c>
+      <c r="D434">
+        <v>433</v>
+      </c>
+      <c r="E434">
+        <v>21</v>
+      </c>
+      <c r="F434">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>166</v>
+      </c>
+      <c r="B435">
+        <v>13</v>
+      </c>
+      <c r="C435">
+        <v>7</v>
+      </c>
+      <c r="D435">
+        <v>434</v>
+      </c>
+      <c r="E435">
+        <v>10</v>
+      </c>
+      <c r="F435">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>167</v>
+      </c>
+      <c r="B436">
+        <v>13</v>
+      </c>
+      <c r="C436">
+        <v>7</v>
+      </c>
+      <c r="D436">
+        <v>435</v>
+      </c>
+      <c r="E436">
+        <v>2</v>
+      </c>
+      <c r="F436">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>88</v>
+      </c>
+      <c r="B437">
+        <v>13</v>
+      </c>
+      <c r="C437">
+        <v>7</v>
+      </c>
+      <c r="D437">
+        <v>436</v>
+      </c>
+      <c r="E437">
+        <v>2</v>
+      </c>
+      <c r="F437">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>168</v>
+      </c>
+      <c r="B438">
+        <v>13</v>
+      </c>
+      <c r="C438">
+        <v>7</v>
+      </c>
+      <c r="D438">
+        <v>437</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>107</v>
+      </c>
+      <c r="B439">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>7</v>
+      </c>
+      <c r="D439">
+        <v>438</v>
+      </c>
+      <c r="E439">
+        <v>19</v>
+      </c>
+      <c r="F439">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>81</v>
+      </c>
+      <c r="B440">
+        <v>9</v>
+      </c>
+      <c r="C440">
+        <v>7</v>
+      </c>
+      <c r="D440">
+        <v>439</v>
+      </c>
+      <c r="E440">
+        <v>6</v>
+      </c>
+      <c r="F440">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>106</v>
+      </c>
+      <c r="B441">
+        <v>9</v>
+      </c>
+      <c r="C441">
+        <v>7</v>
+      </c>
+      <c r="D441">
+        <v>440</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>127</v>
+      </c>
+      <c r="B442">
+        <v>9</v>
+      </c>
+      <c r="C442">
+        <v>7</v>
+      </c>
+      <c r="D442">
+        <v>441</v>
+      </c>
+      <c r="E442">
+        <v>2</v>
+      </c>
+      <c r="F442">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>133</v>
+      </c>
+      <c r="B443">
+        <v>9</v>
+      </c>
+      <c r="C443">
+        <v>7</v>
+      </c>
+      <c r="D443">
+        <v>442</v>
+      </c>
+      <c r="E443">
+        <v>5</v>
+      </c>
+      <c r="F443">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>169</v>
+      </c>
+      <c r="B444">
+        <v>9</v>
+      </c>
+      <c r="C444">
+        <v>7</v>
+      </c>
+      <c r="D444">
+        <v>443</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
